--- a/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_18_32.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_18_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1921260.55766577</v>
+        <v>1919527.076552128</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6049179.212228708</v>
+        <v>6049179.21222871</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673426</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9845945.952470366</v>
+        <v>9845945.952470364</v>
       </c>
     </row>
     <row r="11">
@@ -1370,7 +1370,7 @@
         <v>303.3026304363736</v>
       </c>
       <c r="C11" t="n">
-        <v>14.40375914551481</v>
+        <v>285.8416805439006</v>
       </c>
       <c r="D11" t="n">
         <v>275.251830393576</v>
@@ -1382,10 +1382,10 @@
         <v>327.4448345146045</v>
       </c>
       <c r="G11" t="n">
-        <v>333.0902356170841</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>231.5596978048557</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>23.81896975173335</v>
@@ -1418,16 +1418,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>66.21019719500373</v>
+        <v>66.21019719500376</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>131.4895384249673</v>
       </c>
       <c r="U11" t="n">
         <v>171.691938427054</v>
       </c>
       <c r="V11" t="n">
-        <v>248.3210472430279</v>
+        <v>103.2367934126665</v>
       </c>
       <c r="W11" t="n">
         <v>269.809757490306</v>
@@ -1436,7 +1436,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>306.8067274289466</v>
       </c>
     </row>
     <row r="12">
@@ -1446,22 +1446,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>87.10197242276035</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>80.32562865395852</v>
       </c>
       <c r="E12" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>77.94977548270496</v>
+        <v>65.63800116627691</v>
       </c>
       <c r="G12" t="n">
-        <v>135.8553954612995</v>
+        <v>56.42418423419249</v>
       </c>
       <c r="H12" t="n">
         <v>97.863321483828</v>
@@ -1509,7 +1509,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>172.2637719338126</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
@@ -1528,25 +1528,25 @@
         <v>100.4007689548303</v>
       </c>
       <c r="C13" t="n">
-        <v>87.81560987152085</v>
+        <v>87.81560987152086</v>
       </c>
       <c r="D13" t="n">
-        <v>69.18426179110537</v>
+        <v>69.18426179110538</v>
       </c>
       <c r="E13" t="n">
-        <v>67.00275141946219</v>
+        <v>67.0027514194622</v>
       </c>
       <c r="F13" t="n">
-        <v>65.98983679582426</v>
+        <v>65.98983679582427</v>
       </c>
       <c r="G13" t="n">
-        <v>87.31217688571729</v>
+        <v>87.31217688571731</v>
       </c>
       <c r="H13" t="n">
-        <v>71.70374093278242</v>
+        <v>71.70374093278244</v>
       </c>
       <c r="I13" t="n">
-        <v>38.50079242234358</v>
+        <v>38.50079242234359</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>41.76594105089779</v>
+        <v>41.7659410508978</v>
       </c>
       <c r="S13" t="n">
         <v>122.8432739200354</v>
@@ -1582,7 +1582,7 @@
         <v>143.1837610607363</v>
       </c>
       <c r="U13" t="n">
-        <v>206.8197676978038</v>
+        <v>206.8197676978039</v>
       </c>
       <c r="V13" t="n">
         <v>172.706432096721</v>
@@ -1604,13 +1604,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>303.3026304363736</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>285.8416805439006</v>
       </c>
       <c r="D14" t="n">
-        <v>275.251830393576</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>302.4991588451548</v>
@@ -1619,13 +1619,13 @@
         <v>327.4448345146045</v>
       </c>
       <c r="G14" t="n">
-        <v>333.0902356170841</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>231.5596978048557</v>
+        <v>97.47817520836634</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>23.81896975173336</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>66.21019719500376</v>
       </c>
       <c r="T14" t="n">
         <v>131.4895384249673</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>171.691938427054</v>
       </c>
       <c r="V14" t="n">
         <v>248.3210472430279</v>
       </c>
       <c r="W14" t="n">
-        <v>269.809757490306</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>145.4387976855571</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>306.8067274289466</v>
       </c>
     </row>
     <row r="15">
@@ -1683,7 +1683,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>87.10197242276035</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
         <v>172.7084989883157</v>
@@ -1692,19 +1692,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>139.5597426859876</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>77.94977548270364</v>
       </c>
       <c r="G15" t="n">
-        <v>56.42418423419247</v>
+        <v>56.42418423419249</v>
       </c>
       <c r="H15" t="n">
-        <v>97.863321483828</v>
+        <v>18.43211025672104</v>
       </c>
       <c r="I15" t="n">
-        <v>38.16086372859611</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>7.763751642754542</v>
       </c>
       <c r="S15" t="n">
         <v>144.0419631757947</v>
@@ -1746,7 +1746,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>172.2637719338126</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
@@ -1765,25 +1765,25 @@
         <v>100.4007689548303</v>
       </c>
       <c r="C16" t="n">
-        <v>87.81560987152085</v>
+        <v>87.81560987152086</v>
       </c>
       <c r="D16" t="n">
-        <v>69.18426179110537</v>
+        <v>69.18426179110538</v>
       </c>
       <c r="E16" t="n">
-        <v>67.00275141946219</v>
+        <v>67.0027514194622</v>
       </c>
       <c r="F16" t="n">
-        <v>65.98983679582426</v>
+        <v>65.98983679582427</v>
       </c>
       <c r="G16" t="n">
-        <v>87.31217688571729</v>
+        <v>87.31217688571731</v>
       </c>
       <c r="H16" t="n">
-        <v>71.70374093278242</v>
+        <v>71.70374093278244</v>
       </c>
       <c r="I16" t="n">
-        <v>38.50079242234358</v>
+        <v>38.50079242234359</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>41.76594105089779</v>
+        <v>41.7659410508978</v>
       </c>
       <c r="S16" t="n">
         <v>122.8432739200354</v>
@@ -1819,7 +1819,7 @@
         <v>143.1837610607363</v>
       </c>
       <c r="U16" t="n">
-        <v>206.8197676978039</v>
+        <v>206.8197676978038</v>
       </c>
       <c r="V16" t="n">
         <v>172.706432096721</v>
@@ -1841,13 +1841,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>212.8629325754989</v>
+        <v>223.8714192092667</v>
       </c>
       <c r="C17" t="n">
         <v>206.4104693167936</v>
       </c>
       <c r="D17" t="n">
-        <v>195.820619166469</v>
+        <v>15.92229651677926</v>
       </c>
       <c r="E17" t="n">
         <v>223.0679476180479</v>
@@ -1895,13 +1895,13 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>52.05832719786042</v>
+        <v>52.05832719786043</v>
       </c>
       <c r="U17" t="n">
         <v>92.26072719994707</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>168.889836015921</v>
       </c>
       <c r="W17" t="n">
         <v>190.3785462631991</v>
@@ -1935,13 +1935,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>135.8553954612995</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>7.73685758023375</v>
       </c>
       <c r="I18" t="n">
-        <v>38.1608637285961</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>7.763751642754514</v>
+        <v>7.763751642754542</v>
       </c>
       <c r="S18" t="n">
         <v>144.0419631757947</v>
@@ -1977,7 +1977,7 @@
         <v>194.1665539401884</v>
       </c>
       <c r="U18" t="n">
-        <v>218.4265001819812</v>
+        <v>225.843479337428</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -1986,7 +1986,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
-        <v>46.91056274926356</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
         <v>205.6826957773044</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>20.96955772772338</v>
       </c>
       <c r="C19" t="n">
         <v>8.38439864441392</v>
@@ -2014,7 +2014,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.7433881128243</v>
+        <v>7.88096565861037</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,22 +2047,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>121.1971522780048</v>
       </c>
       <c r="S19" t="n">
-        <v>43.41206269292842</v>
+        <v>43.41206269292843</v>
       </c>
       <c r="T19" t="n">
-        <v>63.75254983362936</v>
+        <v>63.75254983362937</v>
       </c>
       <c r="U19" t="n">
         <v>127.3885564706969</v>
       </c>
       <c r="V19" t="n">
-        <v>147.395054118172</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>127.6605758823771</v>
+        <v>219.4456793071436</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2093,7 +2093,7 @@
         <v>248.0136232874975</v>
       </c>
       <c r="G20" t="n">
-        <v>253.6590243899772</v>
+        <v>73.76070174028766</v>
       </c>
       <c r="H20" t="n">
         <v>152.1284865777488</v>
@@ -2132,7 +2132,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>52.05832719786042</v>
+        <v>52.05832719786043</v>
       </c>
       <c r="U20" t="n">
         <v>92.26072719994707</v>
@@ -2144,7 +2144,7 @@
         <v>190.3785462631991</v>
       </c>
       <c r="X20" t="n">
-        <v>30.97035557456603</v>
+        <v>210.8686782242551</v>
       </c>
       <c r="Y20" t="n">
         <v>227.3755162018397</v>
@@ -2160,13 +2160,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>13.84607653410183</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>138.8107444103779</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>145.0692123933839</v>
@@ -2175,10 +2175,10 @@
         <v>135.8553954612995</v>
       </c>
       <c r="H21" t="n">
-        <v>97.863321483828</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>38.1608637285961</v>
+        <v>38.16086372859611</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>7.763751642754514</v>
+        <v>7.763751642754542</v>
       </c>
       <c r="S21" t="n">
         <v>144.0419631757947</v>
@@ -2217,7 +2217,7 @@
         <v>225.843479337428</v>
       </c>
       <c r="V21" t="n">
-        <v>127.5202865101501</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
         <v>251.6949831609196</v>
@@ -2242,10 +2242,10 @@
         <v>8.38439864441392</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>105.2972014893229</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2257,7 +2257,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>117.9320036494506</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>43.41206269292842</v>
+        <v>43.41206269292843</v>
       </c>
       <c r="T22" t="n">
-        <v>63.75254983362936</v>
+        <v>222.6149722878433</v>
       </c>
       <c r="U22" t="n">
-        <v>127.3885564706969</v>
+        <v>286.2509789249108</v>
       </c>
       <c r="V22" t="n">
         <v>93.27522086961409</v>
       </c>
       <c r="W22" t="n">
-        <v>127.6605758823771</v>
+        <v>181.7804091309344</v>
       </c>
       <c r="X22" t="n">
-        <v>66.84723293482324</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>59.72223089788088</v>
       </c>
     </row>
     <row r="23">
@@ -2369,7 +2369,7 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>52.05832719786042</v>
+        <v>52.05832719786043</v>
       </c>
       <c r="U23" t="n">
         <v>92.26072719994707</v>
@@ -2409,13 +2409,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>51.61099501749967</v>
+        <v>135.8553954612995</v>
       </c>
       <c r="H24" t="n">
-        <v>97.863321483828</v>
+        <v>13.61892104002907</v>
       </c>
       <c r="I24" t="n">
-        <v>38.1608637285961</v>
+        <v>38.16086372859611</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>7.763751642754514</v>
+        <v>7.763751642754542</v>
       </c>
       <c r="S24" t="n">
         <v>144.0419631757947</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>20.96955772772338</v>
       </c>
       <c r="C25" t="n">
         <v>8.38439864441392</v>
@@ -2497,7 +2497,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>5.154479050315274</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>121.1971522780048</v>
       </c>
       <c r="S25" t="n">
-        <v>43.41206269292842</v>
+        <v>43.41206269292843</v>
       </c>
       <c r="T25" t="n">
-        <v>63.75254983362936</v>
+        <v>165.7846026943977</v>
       </c>
       <c r="U25" t="n">
-        <v>127.3885564706969</v>
+        <v>286.2509789249108</v>
       </c>
       <c r="V25" t="n">
         <v>93.27522086961409</v>
       </c>
       <c r="W25" t="n">
-        <v>186.8728795166216</v>
+        <v>127.6605758823771</v>
       </c>
       <c r="X25" t="n">
         <v>66.84723293482324</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>59.72223089788088</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>231.5596978048558</v>
       </c>
       <c r="I26" t="n">
-        <v>23.81896975173336</v>
+        <v>23.81896975173339</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>66.21019719500373</v>
+        <v>66.21019719500377</v>
       </c>
       <c r="T26" t="n">
         <v>131.4895384249674</v>
@@ -2652,7 +2652,7 @@
         <v>97.863321483828</v>
       </c>
       <c r="I27" t="n">
-        <v>38.1608637285961</v>
+        <v>38.16086372859611</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>7.763751642754514</v>
+        <v>7.763751642754542</v>
       </c>
       <c r="S27" t="n">
         <v>144.0419631757947</v>
@@ -2728,10 +2728,10 @@
         <v>87.31217688571734</v>
       </c>
       <c r="H28" t="n">
-        <v>71.70374093278247</v>
+        <v>71.70374093278245</v>
       </c>
       <c r="I28" t="n">
-        <v>38.50079242234361</v>
+        <v>38.50079242234362</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.76594105089781</v>
+        <v>41.76594105089784</v>
       </c>
       <c r="S28" t="n">
         <v>122.8432739200354</v>
@@ -2810,7 +2810,7 @@
         <v>231.5596978048558</v>
       </c>
       <c r="I29" t="n">
-        <v>23.81896975173338</v>
+        <v>23.81896975173339</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>66.21019719500376</v>
+        <v>66.21019719500377</v>
       </c>
       <c r="T29" t="n">
         <v>131.4895384249674</v>
       </c>
       <c r="U29" t="n">
-        <v>171.6919384270541</v>
+        <v>171.691938427054</v>
       </c>
       <c r="V29" t="n">
         <v>248.321047243028</v>
@@ -2889,7 +2889,7 @@
         <v>97.863321483828</v>
       </c>
       <c r="I30" t="n">
-        <v>38.1608637285961</v>
+        <v>38.16086372859611</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>7.763751642754514</v>
+        <v>7.763751642754542</v>
       </c>
       <c r="S30" t="n">
         <v>144.0419631757947</v>
@@ -2950,25 +2950,25 @@
         <v>100.4007689548304</v>
       </c>
       <c r="C31" t="n">
-        <v>87.81560987152091</v>
+        <v>87.81560987152089</v>
       </c>
       <c r="D31" t="n">
-        <v>69.18426179110543</v>
+        <v>69.18426179110541</v>
       </c>
       <c r="E31" t="n">
-        <v>67.00275141946224</v>
+        <v>67.00275141946223</v>
       </c>
       <c r="F31" t="n">
-        <v>65.98983679582432</v>
+        <v>65.9898367958243</v>
       </c>
       <c r="G31" t="n">
-        <v>87.31217688571735</v>
+        <v>87.31217688571734</v>
       </c>
       <c r="H31" t="n">
         <v>71.70374093278247</v>
       </c>
       <c r="I31" t="n">
-        <v>38.50079242234364</v>
+        <v>38.50079242234362</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.76594105089782</v>
+        <v>41.76594105089783</v>
       </c>
       <c r="S31" t="n">
         <v>122.8432739200354</v>
@@ -3029,25 +3029,25 @@
         <v>303.3026304363736</v>
       </c>
       <c r="C32" t="n">
-        <v>285.8416805439006</v>
+        <v>285.8416805439002</v>
       </c>
       <c r="D32" t="n">
         <v>275.251830393576</v>
       </c>
       <c r="E32" t="n">
-        <v>302.4991588451549</v>
+        <v>302.4991588451548</v>
       </c>
       <c r="F32" t="n">
         <v>327.4448345146045</v>
       </c>
       <c r="G32" t="n">
-        <v>333.0902356170842</v>
+        <v>333.0902356170841</v>
       </c>
       <c r="H32" t="n">
-        <v>231.5596978048558</v>
+        <v>231.5596978048557</v>
       </c>
       <c r="I32" t="n">
-        <v>23.81896975173338</v>
+        <v>23.81896975173335</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>66.21019719500396</v>
+        <v>66.21019719500376</v>
       </c>
       <c r="T32" t="n">
-        <v>131.4895384249674</v>
+        <v>131.4895384249673</v>
       </c>
       <c r="U32" t="n">
-        <v>171.6919384270541</v>
+        <v>171.691938427054</v>
       </c>
       <c r="V32" t="n">
-        <v>248.321047243028</v>
+        <v>248.3210472430279</v>
       </c>
       <c r="W32" t="n">
-        <v>269.8097574903061</v>
+        <v>269.809757490306</v>
       </c>
       <c r="X32" t="n">
-        <v>290.2998894513621</v>
+        <v>290.299889451362</v>
       </c>
       <c r="Y32" t="n">
-        <v>306.8067274289467</v>
+        <v>306.8067274289466</v>
       </c>
     </row>
     <row r="33">
@@ -3126,7 +3126,7 @@
         <v>97.863321483828</v>
       </c>
       <c r="I33" t="n">
-        <v>38.1608637285961</v>
+        <v>38.16086372859611</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>7.763751642754514</v>
+        <v>7.763751642754542</v>
       </c>
       <c r="S33" t="n">
         <v>144.0419631757947</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>100.4007689548304</v>
+        <v>100.4007689548303</v>
       </c>
       <c r="C34" t="n">
-        <v>87.81560987152089</v>
+        <v>87.81560987152086</v>
       </c>
       <c r="D34" t="n">
-        <v>69.18426179110541</v>
+        <v>69.18426179110538</v>
       </c>
       <c r="E34" t="n">
-        <v>67.00275141946223</v>
+        <v>67.0027514194622</v>
       </c>
       <c r="F34" t="n">
-        <v>65.9898367958243</v>
+        <v>65.98983679582427</v>
       </c>
       <c r="G34" t="n">
-        <v>87.31217688571734</v>
+        <v>87.31217688571731</v>
       </c>
       <c r="H34" t="n">
-        <v>71.70374093278245</v>
+        <v>71.70374093278242</v>
       </c>
       <c r="I34" t="n">
-        <v>38.50079242234362</v>
+        <v>38.50079242234359</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3244,16 +3244,16 @@
         <v>206.8197676978039</v>
       </c>
       <c r="V34" t="n">
-        <v>172.7064320967211</v>
+        <v>172.706432096721</v>
       </c>
       <c r="W34" t="n">
-        <v>207.0917871094841</v>
+        <v>207.091787109484</v>
       </c>
       <c r="X34" t="n">
         <v>146.2784441619302</v>
       </c>
       <c r="Y34" t="n">
-        <v>139.1534421249879</v>
+        <v>139.1534421249878</v>
       </c>
     </row>
     <row r="35">
@@ -3266,19 +3266,19 @@
         <v>237.0924332413699</v>
       </c>
       <c r="C35" t="n">
-        <v>219.6314833488968</v>
+        <v>219.6314833488969</v>
       </c>
       <c r="D35" t="n">
-        <v>209.0416331985722</v>
+        <v>209.0416331985723</v>
       </c>
       <c r="E35" t="n">
         <v>236.2889616501511</v>
       </c>
       <c r="F35" t="n">
-        <v>261.2346373196007</v>
+        <v>261.2346373196008</v>
       </c>
       <c r="G35" t="n">
-        <v>266.8800384220804</v>
+        <v>266.8800384220805</v>
       </c>
       <c r="H35" t="n">
         <v>165.349500609852</v>
@@ -3317,7 +3317,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>65.27934122996362</v>
+        <v>65.27934122996365</v>
       </c>
       <c r="U35" t="n">
         <v>105.4817412320503</v>
@@ -3363,7 +3363,7 @@
         <v>97.863321483828</v>
       </c>
       <c r="I36" t="n">
-        <v>38.1608637285961</v>
+        <v>38.16086372859611</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>7.763751642754514</v>
+        <v>7.763751642754542</v>
       </c>
       <c r="S36" t="n">
         <v>144.0419631757947</v>
@@ -3421,25 +3421,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>34.19057175982658</v>
+        <v>34.19057175982661</v>
       </c>
       <c r="C37" t="n">
-        <v>21.60541267651712</v>
+        <v>21.60541267651715</v>
       </c>
       <c r="D37" t="n">
-        <v>2.974064596101641</v>
+        <v>2.97406459610167</v>
       </c>
       <c r="E37" t="n">
-        <v>0.7925542244584562</v>
+        <v>0.7925542244584847</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>21.10197969071357</v>
+        <v>21.1019796907136</v>
       </c>
       <c r="H37" t="n">
-        <v>5.493543737778687</v>
+        <v>5.493543737778719</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,16 +3469,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>97.9539808876074</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>202.2744851471423</v>
       </c>
       <c r="T37" t="n">
-        <v>76.97356386573256</v>
+        <v>76.97356386573259</v>
       </c>
       <c r="U37" t="n">
-        <v>140.6095705028001</v>
+        <v>238.5635513904071</v>
       </c>
       <c r="V37" t="n">
         <v>106.4962349017173</v>
@@ -3487,10 +3487,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>80.06824696692644</v>
+        <v>80.06824696692647</v>
       </c>
       <c r="Y37" t="n">
-        <v>72.94324492998408</v>
+        <v>72.9432449299841</v>
       </c>
     </row>
     <row r="38">
@@ -3503,19 +3503,19 @@
         <v>237.0924332413699</v>
       </c>
       <c r="C38" t="n">
-        <v>219.6314833488968</v>
+        <v>219.6314833488969</v>
       </c>
       <c r="D38" t="n">
-        <v>209.0416331985722</v>
+        <v>209.0416331985723</v>
       </c>
       <c r="E38" t="n">
         <v>236.2889616501511</v>
       </c>
       <c r="F38" t="n">
-        <v>261.2346373196007</v>
+        <v>261.2346373196008</v>
       </c>
       <c r="G38" t="n">
-        <v>266.8800384220804</v>
+        <v>266.8800384220805</v>
       </c>
       <c r="H38" t="n">
         <v>165.349500609852</v>
@@ -3554,7 +3554,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>65.27934122996362</v>
+        <v>65.27934122996365</v>
       </c>
       <c r="U38" t="n">
         <v>105.4817412320503</v>
@@ -3600,7 +3600,7 @@
         <v>97.863321483828</v>
       </c>
       <c r="I39" t="n">
-        <v>38.1608637285961</v>
+        <v>38.16086372859611</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>7.763751642754514</v>
+        <v>7.763751642754542</v>
       </c>
       <c r="S39" t="n">
         <v>144.0419631757947</v>
@@ -3658,25 +3658,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>34.19057175982658</v>
+        <v>34.19057175982661</v>
       </c>
       <c r="C40" t="n">
-        <v>21.60541267651712</v>
+        <v>21.60541267651715</v>
       </c>
       <c r="D40" t="n">
-        <v>100.928045483709</v>
+        <v>2.97406459610167</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0.7925542244584847</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>21.10197969071357</v>
+        <v>21.1019796907136</v>
       </c>
       <c r="H40" t="n">
-        <v>5.493543737778687</v>
+        <v>5.493543737778719</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3709,13 +3709,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>56.63307672503162</v>
+        <v>202.2744851471423</v>
       </c>
       <c r="T40" t="n">
-        <v>76.97356386573256</v>
+        <v>222.6149722878433</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2509789249108</v>
+        <v>238.563551390407</v>
       </c>
       <c r="V40" t="n">
         <v>106.4962349017173</v>
@@ -3724,10 +3724,10 @@
         <v>140.8815899144803</v>
       </c>
       <c r="X40" t="n">
-        <v>80.06824696692644</v>
+        <v>80.06824696692647</v>
       </c>
       <c r="Y40" t="n">
-        <v>72.94324492998408</v>
+        <v>72.9432449299841</v>
       </c>
     </row>
     <row r="41">
@@ -3740,19 +3740,19 @@
         <v>237.0924332413699</v>
       </c>
       <c r="C41" t="n">
-        <v>219.6314833488968</v>
+        <v>219.6314833488969</v>
       </c>
       <c r="D41" t="n">
-        <v>209.0416331985722</v>
+        <v>209.0416331985723</v>
       </c>
       <c r="E41" t="n">
         <v>236.2889616501511</v>
       </c>
       <c r="F41" t="n">
-        <v>261.2346373196007</v>
+        <v>261.2346373196008</v>
       </c>
       <c r="G41" t="n">
-        <v>266.8800384220804</v>
+        <v>266.8800384220805</v>
       </c>
       <c r="H41" t="n">
         <v>165.349500609852</v>
@@ -3791,7 +3791,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>65.27934122996362</v>
+        <v>65.27934122996365</v>
       </c>
       <c r="U41" t="n">
         <v>105.4817412320503</v>
@@ -3895,25 +3895,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>34.19057175982658</v>
+        <v>34.19057175982661</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>21.60541267651715</v>
       </c>
       <c r="D43" t="n">
-        <v>2.974064596101641</v>
+        <v>2.97406459610167</v>
       </c>
       <c r="E43" t="n">
-        <v>98.74653511206576</v>
+        <v>0.7925542244584847</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>21.10197969071357</v>
+        <v>21.1019796907136</v>
       </c>
       <c r="H43" t="n">
-        <v>5.49354373777869</v>
+        <v>5.493543737778719</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>202.2744851471423</v>
+        <v>56.63307672503166</v>
       </c>
       <c r="T43" t="n">
-        <v>76.97356386573256</v>
+        <v>76.97356386573259</v>
       </c>
       <c r="U43" t="n">
         <v>140.6095705028001</v>
       </c>
       <c r="V43" t="n">
-        <v>106.4962349017173</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>140.8815899144803</v>
+        <v>238.8355708020873</v>
       </c>
       <c r="X43" t="n">
-        <v>80.06824696692644</v>
+        <v>80.06824696692647</v>
       </c>
       <c r="Y43" t="n">
-        <v>72.94324492998408</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3977,19 +3977,19 @@
         <v>237.0924332413699</v>
       </c>
       <c r="C44" t="n">
-        <v>219.6314833488968</v>
+        <v>219.6314833488969</v>
       </c>
       <c r="D44" t="n">
-        <v>209.0416331985722</v>
+        <v>209.0416331985723</v>
       </c>
       <c r="E44" t="n">
         <v>236.2889616501511</v>
       </c>
       <c r="F44" t="n">
-        <v>261.2346373196007</v>
+        <v>261.2346373196008</v>
       </c>
       <c r="G44" t="n">
-        <v>266.8800384220804</v>
+        <v>266.8800384220822</v>
       </c>
       <c r="H44" t="n">
         <v>165.349500609852</v>
@@ -4028,7 +4028,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>65.27934122996362</v>
+        <v>65.27934122996365</v>
       </c>
       <c r="U44" t="n">
         <v>105.4817412320503</v>
@@ -4132,31 +4132,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>34.19057175982658</v>
+        <v>34.19057175982661</v>
       </c>
       <c r="C46" t="n">
-        <v>21.60541267651712</v>
+        <v>21.60541267651715</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>2.97406459610167</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0.7925542244584847</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>113.9014815280057</v>
+        <v>21.1019796907136</v>
       </c>
       <c r="H46" t="n">
-        <v>5.49354373777869</v>
+        <v>5.493543737778719</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>5.154479050315302</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>56.63307672503163</v>
+        <v>56.63307672503166</v>
       </c>
       <c r="T46" t="n">
-        <v>76.97356386573256</v>
+        <v>222.6149722878433</v>
       </c>
       <c r="U46" t="n">
-        <v>140.6095705028001</v>
+        <v>286.2509789249108</v>
       </c>
       <c r="V46" t="n">
         <v>106.4962349017173</v>
       </c>
       <c r="W46" t="n">
-        <v>140.8815899144803</v>
+        <v>238.8355708020872</v>
       </c>
       <c r="X46" t="n">
-        <v>80.06824696692644</v>
+        <v>80.06824696692647</v>
       </c>
       <c r="Y46" t="n">
-        <v>72.94324492998408</v>
+        <v>72.9432449299841</v>
       </c>
     </row>
   </sheetData>
@@ -5015,28 +5015,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1264.436238552055</v>
+        <v>968.2624890333136</v>
       </c>
       <c r="C11" t="n">
-        <v>1249.886986889919</v>
+        <v>679.5335187869493</v>
       </c>
       <c r="D11" t="n">
-        <v>971.8548349772157</v>
+        <v>401.5013668742463</v>
       </c>
       <c r="E11" t="n">
-        <v>971.8548349772157</v>
+        <v>401.5013668742463</v>
       </c>
       <c r="F11" t="n">
-        <v>641.1024768816555</v>
+        <v>70.74900877868622</v>
       </c>
       <c r="G11" t="n">
-        <v>304.6476934300554</v>
+        <v>70.74900877868622</v>
       </c>
       <c r="H11" t="n">
-        <v>70.74900877868595</v>
+        <v>70.74900877868622</v>
       </c>
       <c r="I11" t="n">
-        <v>46.68944337289495</v>
+        <v>46.68944337289492</v>
       </c>
       <c r="J11" t="n">
         <v>101.151981283672</v>
@@ -5045,46 +5045,46 @@
         <v>233.5157259013833</v>
       </c>
       <c r="L11" t="n">
-        <v>811.2975876409582</v>
+        <v>434.6264173605291</v>
       </c>
       <c r="M11" t="n">
-        <v>1389.079449380533</v>
+        <v>694.8391685269189</v>
       </c>
       <c r="N11" t="n">
-        <v>1653.270437586678</v>
+        <v>959.0301567330632</v>
       </c>
       <c r="O11" t="n">
-        <v>1889.40323492787</v>
+        <v>1536.812018472638</v>
       </c>
       <c r="P11" t="n">
-        <v>2257.210179707976</v>
+        <v>2022.425618108813</v>
       </c>
       <c r="Q11" t="n">
-        <v>2334.472168644747</v>
+        <v>2309.87944779889</v>
       </c>
       <c r="R11" t="n">
-        <v>2334.472168644747</v>
+        <v>2334.472168644746</v>
       </c>
       <c r="S11" t="n">
-        <v>2267.593181579087</v>
+        <v>2267.593181579085</v>
       </c>
       <c r="T11" t="n">
-        <v>2267.593181579087</v>
+        <v>2134.77546599831</v>
       </c>
       <c r="U11" t="n">
-        <v>2094.16698114772</v>
+        <v>1961.349265566942</v>
       </c>
       <c r="V11" t="n">
-        <v>1843.337640498196</v>
+        <v>1857.069676261219</v>
       </c>
       <c r="W11" t="n">
-        <v>1570.80253192213</v>
+        <v>1584.534567685152</v>
       </c>
       <c r="X11" t="n">
-        <v>1570.80253192213</v>
+        <v>1584.534567685152</v>
       </c>
       <c r="Y11" t="n">
-        <v>1570.80253192213</v>
+        <v>1274.628782403388</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>844.1309963387413</v>
+        <v>683.663902950645</v>
       </c>
       <c r="C12" t="n">
-        <v>669.6779670576143</v>
+        <v>509.210873669518</v>
       </c>
       <c r="D12" t="n">
-        <v>520.743557396363</v>
+        <v>428.0738750291559</v>
       </c>
       <c r="E12" t="n">
-        <v>361.5061023909075</v>
+        <v>268.8364200237004</v>
       </c>
       <c r="F12" t="n">
-        <v>282.7689554386803</v>
+        <v>202.5354087446328</v>
       </c>
       <c r="G12" t="n">
         <v>145.5412832555495</v>
       </c>
       <c r="H12" t="n">
-        <v>46.68944337289495</v>
+        <v>46.68944337289492</v>
       </c>
       <c r="I12" t="n">
-        <v>46.68944337289495</v>
+        <v>46.68944337289492</v>
       </c>
       <c r="J12" t="n">
-        <v>60.30911088982446</v>
+        <v>60.30911088982443</v>
       </c>
       <c r="K12" t="n">
-        <v>161.7421167099068</v>
+        <v>423.5627013523596</v>
       </c>
       <c r="L12" t="n">
-        <v>549.5602521774825</v>
+        <v>973.406378293435</v>
       </c>
       <c r="M12" t="n">
-        <v>782.1330972447479</v>
+        <v>1205.9792233607</v>
       </c>
       <c r="N12" t="n">
-        <v>1035.270098394592</v>
+        <v>1558.524754206619</v>
       </c>
       <c r="O12" t="n">
-        <v>1613.051960134167</v>
+        <v>2136.306615946194</v>
       </c>
       <c r="P12" t="n">
-        <v>2077.019754551161</v>
+        <v>2284.99626940965</v>
       </c>
       <c r="Q12" t="n">
-        <v>2334.472168644747</v>
+        <v>2334.472168644746</v>
       </c>
       <c r="R12" t="n">
-        <v>2326.629995268228</v>
+        <v>2326.629995268226</v>
       </c>
       <c r="S12" t="n">
-        <v>2181.133062767425</v>
+        <v>2181.133062767423</v>
       </c>
       <c r="T12" t="n">
-        <v>1985.005230504608</v>
+        <v>1985.005230504607</v>
       </c>
       <c r="U12" t="n">
-        <v>1756.880503901145</v>
+        <v>1756.880503901144</v>
       </c>
       <c r="V12" t="n">
-        <v>1521.728395669403</v>
+        <v>1521.728395669401</v>
       </c>
       <c r="W12" t="n">
-        <v>1347.724585635249</v>
+        <v>1267.4910389412</v>
       </c>
       <c r="X12" t="n">
-        <v>1139.873085429716</v>
+        <v>1059.639538735667</v>
       </c>
       <c r="Y12" t="n">
-        <v>932.1127866647619</v>
+        <v>851.8792399707131</v>
       </c>
     </row>
     <row r="13">
@@ -5173,58 +5173,58 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>539.1229485433556</v>
+        <v>539.122948543356</v>
       </c>
       <c r="C13" t="n">
-        <v>450.4203123094961</v>
+        <v>450.4203123094965</v>
       </c>
       <c r="D13" t="n">
-        <v>380.5372195912079</v>
+        <v>380.5372195912082</v>
       </c>
       <c r="E13" t="n">
-        <v>312.8576727028622</v>
+        <v>312.8576727028624</v>
       </c>
       <c r="F13" t="n">
-        <v>246.2012718989993</v>
+        <v>246.2012718989995</v>
       </c>
       <c r="G13" t="n">
-        <v>158.0071538326182</v>
+        <v>158.0071538326181</v>
       </c>
       <c r="H13" t="n">
-        <v>85.57913268839351</v>
+        <v>85.5791326883935</v>
       </c>
       <c r="I13" t="n">
-        <v>46.68944337289495</v>
+        <v>46.68944337289492</v>
       </c>
       <c r="J13" t="n">
         <v>120.2234082279187</v>
       </c>
       <c r="K13" t="n">
-        <v>320.3114555080081</v>
+        <v>320.3114555080077</v>
       </c>
       <c r="L13" t="n">
-        <v>609.8904447105131</v>
+        <v>609.8904447105126</v>
       </c>
       <c r="M13" t="n">
-        <v>921.3253246538486</v>
+        <v>921.3253246538482</v>
       </c>
       <c r="N13" t="n">
         <v>1232.659405364007</v>
       </c>
       <c r="O13" t="n">
-        <v>1510.213519297865</v>
+        <v>1510.213519297866</v>
       </c>
       <c r="P13" t="n">
-        <v>1735.537777472235</v>
+        <v>1735.537777472236</v>
       </c>
       <c r="Q13" t="n">
-        <v>1832.298320439746</v>
+        <v>1832.298320439747</v>
       </c>
       <c r="R13" t="n">
         <v>1790.110501196415</v>
       </c>
       <c r="S13" t="n">
-        <v>1666.026386125672</v>
+        <v>1666.026386125673</v>
       </c>
       <c r="T13" t="n">
         <v>1521.396324448161</v>
@@ -5236,13 +5236,13 @@
         <v>1138.036526675914</v>
       </c>
       <c r="W13" t="n">
-        <v>928.8529033330003</v>
+        <v>928.8529033330008</v>
       </c>
       <c r="X13" t="n">
-        <v>781.0968991290305</v>
+        <v>781.0968991290308</v>
       </c>
       <c r="Y13" t="n">
-        <v>640.5378666795478</v>
+        <v>640.5378666795482</v>
       </c>
     </row>
     <row r="14">
@@ -5252,28 +5252,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1531.382127388325</v>
+        <v>1094.247846265581</v>
       </c>
       <c r="C14" t="n">
-        <v>1531.382127388325</v>
+        <v>805.5188760192171</v>
       </c>
       <c r="D14" t="n">
-        <v>1253.349975475621</v>
+        <v>805.5188760192171</v>
       </c>
       <c r="E14" t="n">
-        <v>947.7952695714247</v>
+        <v>499.9641701150204</v>
       </c>
       <c r="F14" t="n">
-        <v>617.0429114758646</v>
+        <v>169.2118120194603</v>
       </c>
       <c r="G14" t="n">
-        <v>280.5881280242644</v>
+        <v>169.2118120194603</v>
       </c>
       <c r="H14" t="n">
-        <v>46.68944337289495</v>
+        <v>70.7490087786862</v>
       </c>
       <c r="I14" t="n">
-        <v>46.68944337289495</v>
+        <v>46.68944337289492</v>
       </c>
       <c r="J14" t="n">
         <v>268.557630304025</v>
@@ -5282,46 +5282,46 @@
         <v>721.8253333671894</v>
       </c>
       <c r="L14" t="n">
-        <v>987.4789330288005</v>
+        <v>922.9360248263351</v>
       </c>
       <c r="M14" t="n">
-        <v>1565.260794768375</v>
+        <v>1379.661674860925</v>
       </c>
       <c r="N14" t="n">
-        <v>1829.45178297452</v>
+        <v>1643.852663067069</v>
       </c>
       <c r="O14" t="n">
-        <v>2065.584580315713</v>
+        <v>1879.985460408262</v>
       </c>
       <c r="P14" t="n">
-        <v>2232.61745886212</v>
+        <v>2047.018338954669</v>
       </c>
       <c r="Q14" t="n">
-        <v>2309.879447798891</v>
+        <v>2334.472168644746</v>
       </c>
       <c r="R14" t="n">
-        <v>2334.472168644747</v>
+        <v>2334.472168644746</v>
       </c>
       <c r="S14" t="n">
-        <v>2334.472168644747</v>
+        <v>2267.593181579085</v>
       </c>
       <c r="T14" t="n">
-        <v>2201.654453063972</v>
+        <v>2134.77546599831</v>
       </c>
       <c r="U14" t="n">
-        <v>2201.654453063972</v>
+        <v>1961.349265566942</v>
       </c>
       <c r="V14" t="n">
-        <v>1950.825112414449</v>
+        <v>1710.519924917419</v>
       </c>
       <c r="W14" t="n">
-        <v>1678.290003838382</v>
+        <v>1710.519924917419</v>
       </c>
       <c r="X14" t="n">
-        <v>1531.382127388325</v>
+        <v>1710.519924917419</v>
       </c>
       <c r="Y14" t="n">
-        <v>1531.382127388325</v>
+        <v>1400.614139635655</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>851.9731697152612</v>
+        <v>683.663902950645</v>
       </c>
       <c r="C15" t="n">
-        <v>677.5201404341342</v>
+        <v>509.210873669518</v>
       </c>
       <c r="D15" t="n">
-        <v>528.5857307728829</v>
+        <v>360.2764640082668</v>
       </c>
       <c r="E15" t="n">
-        <v>387.6162937163298</v>
+        <v>201.0390090028113</v>
       </c>
       <c r="F15" t="n">
-        <v>241.0817357432148</v>
+        <v>122.3018620505854</v>
       </c>
       <c r="G15" t="n">
-        <v>184.0876102541314</v>
+        <v>65.30773656150203</v>
       </c>
       <c r="H15" t="n">
-        <v>85.23577037147689</v>
+        <v>46.68944337289492</v>
       </c>
       <c r="I15" t="n">
-        <v>46.68944337289495</v>
+        <v>46.68944337289492</v>
       </c>
       <c r="J15" t="n">
-        <v>60.30911088982446</v>
+        <v>60.30911088982443</v>
       </c>
       <c r="K15" t="n">
         <v>161.7421167099068</v>
       </c>
       <c r="L15" t="n">
-        <v>344.4538518005576</v>
+        <v>711.5857936509822</v>
       </c>
       <c r="M15" t="n">
-        <v>922.2357135401326</v>
+        <v>944.1586387182475</v>
       </c>
       <c r="N15" t="n">
-        <v>1500.017575279708</v>
+        <v>1521.940500457822</v>
       </c>
       <c r="O15" t="n">
-        <v>2077.799437019283</v>
+        <v>2099.722362197397</v>
       </c>
       <c r="P15" t="n">
-        <v>2226.489090482739</v>
+        <v>2248.412015660853</v>
       </c>
       <c r="Q15" t="n">
-        <v>2334.472168644747</v>
+        <v>2334.472168644746</v>
       </c>
       <c r="R15" t="n">
-        <v>2334.472168644747</v>
+        <v>2326.629995268226</v>
       </c>
       <c r="S15" t="n">
-        <v>2188.975236143945</v>
+        <v>2181.133062767423</v>
       </c>
       <c r="T15" t="n">
-        <v>1992.847403881128</v>
+        <v>1985.005230504607</v>
       </c>
       <c r="U15" t="n">
-        <v>1764.722677277665</v>
+        <v>1756.880503901144</v>
       </c>
       <c r="V15" t="n">
-        <v>1529.570569045923</v>
+        <v>1521.728395669401</v>
       </c>
       <c r="W15" t="n">
-        <v>1355.566759011768</v>
+        <v>1267.4910389412</v>
       </c>
       <c r="X15" t="n">
-        <v>1147.715258806236</v>
+        <v>1059.639538735667</v>
       </c>
       <c r="Y15" t="n">
-        <v>939.9549600412818</v>
+        <v>851.8792399707131</v>
       </c>
     </row>
     <row r="16">
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>539.122948543356</v>
+        <v>539.1229485433556</v>
       </c>
       <c r="C16" t="n">
-        <v>450.4203123094965</v>
+        <v>450.4203123094962</v>
       </c>
       <c r="D16" t="n">
-        <v>380.5372195912082</v>
+        <v>380.5372195912079</v>
       </c>
       <c r="E16" t="n">
-        <v>312.8576727028626</v>
+        <v>312.8576727028623</v>
       </c>
       <c r="F16" t="n">
-        <v>246.2012718989997</v>
+        <v>246.2012718989993</v>
       </c>
       <c r="G16" t="n">
-        <v>158.0071538326181</v>
+        <v>158.0071538326182</v>
       </c>
       <c r="H16" t="n">
-        <v>85.57913268839351</v>
+        <v>85.5791326883935</v>
       </c>
       <c r="I16" t="n">
-        <v>46.68944337289495</v>
+        <v>46.68944337289492</v>
       </c>
       <c r="J16" t="n">
         <v>120.2234082279187</v>
       </c>
       <c r="K16" t="n">
-        <v>320.3114555080081</v>
+        <v>320.311455508008</v>
       </c>
       <c r="L16" t="n">
-        <v>609.8904447105131</v>
+        <v>609.890444710513</v>
       </c>
       <c r="M16" t="n">
         <v>921.3253246538485</v>
@@ -5455,31 +5455,31 @@
         <v>1735.537777472236</v>
       </c>
       <c r="Q16" t="n">
-        <v>1832.298320439747</v>
+        <v>1832.298320439746</v>
       </c>
       <c r="R16" t="n">
         <v>1790.110501196415</v>
       </c>
       <c r="S16" t="n">
-        <v>1666.026386125673</v>
+        <v>1666.026386125672</v>
       </c>
       <c r="T16" t="n">
         <v>1521.396324448161</v>
       </c>
       <c r="U16" t="n">
-        <v>1312.487468187754</v>
+        <v>1312.487468187753</v>
       </c>
       <c r="V16" t="n">
         <v>1138.036526675914</v>
       </c>
       <c r="W16" t="n">
-        <v>928.852903333001</v>
+        <v>928.8529033330003</v>
       </c>
       <c r="X16" t="n">
-        <v>781.0968991290308</v>
+        <v>781.0968991290305</v>
       </c>
       <c r="Y16" t="n">
-        <v>640.5378666795482</v>
+        <v>640.5378666795478</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1338.709817470404</v>
+        <v>1156.994340046475</v>
       </c>
       <c r="C17" t="n">
-        <v>1130.214393918087</v>
+        <v>948.4989164941583</v>
       </c>
       <c r="D17" t="n">
-        <v>932.4157886994315</v>
+        <v>932.4157886994318</v>
       </c>
       <c r="E17" t="n">
-        <v>707.0946294892821</v>
+        <v>707.0946294892824</v>
       </c>
       <c r="F17" t="n">
-        <v>456.5758180877693</v>
+        <v>456.5758180877697</v>
       </c>
       <c r="G17" t="n">
-        <v>200.354581330217</v>
+        <v>200.3545813302169</v>
       </c>
       <c r="H17" t="n">
-        <v>46.68944337289495</v>
+        <v>46.68944337289493</v>
       </c>
       <c r="I17" t="n">
-        <v>46.68944337289495</v>
+        <v>46.68944337289493</v>
       </c>
       <c r="J17" t="n">
-        <v>268.5576303040251</v>
+        <v>101.151981283672</v>
       </c>
       <c r="K17" t="n">
-        <v>400.9213749217365</v>
+        <v>554.4196843468363</v>
       </c>
       <c r="L17" t="n">
-        <v>978.7032366613115</v>
+        <v>755.5303758059821</v>
       </c>
       <c r="M17" t="n">
-        <v>1556.485098400886</v>
+        <v>1010.97420738012</v>
       </c>
       <c r="N17" t="n">
-        <v>1820.676086607031</v>
+        <v>1535.463782730607</v>
       </c>
       <c r="O17" t="n">
-        <v>2056.808883948224</v>
+        <v>1771.5965800718</v>
       </c>
       <c r="P17" t="n">
-        <v>2232.61745886212</v>
+        <v>2257.210179707975</v>
       </c>
       <c r="Q17" t="n">
-        <v>2309.879447798891</v>
+        <v>2334.472168644746</v>
       </c>
       <c r="R17" t="n">
-        <v>2334.472168644747</v>
+        <v>2334.472168644746</v>
       </c>
       <c r="S17" t="n">
-        <v>2334.472168644747</v>
+        <v>2334.472168644746</v>
       </c>
       <c r="T17" t="n">
-        <v>2281.887999758019</v>
+        <v>2281.887999758018</v>
       </c>
       <c r="U17" t="n">
         <v>2188.695346020699</v>
       </c>
       <c r="V17" t="n">
-        <v>2188.695346020699</v>
+        <v>2018.099552065223</v>
       </c>
       <c r="W17" t="n">
-        <v>1996.39378413868</v>
+        <v>1825.797990183204</v>
       </c>
       <c r="X17" t="n">
-        <v>1783.395119265695</v>
+        <v>1612.799325310219</v>
       </c>
       <c r="Y17" t="n">
-        <v>1553.722880677979</v>
+        <v>1383.127086722502</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>851.6228944755563</v>
+        <v>683.6639029506455</v>
       </c>
       <c r="C18" t="n">
-        <v>677.1698651944293</v>
+        <v>509.2108736695185</v>
       </c>
       <c r="D18" t="n">
-        <v>528.2354555331781</v>
+        <v>360.2764640082672</v>
       </c>
       <c r="E18" t="n">
-        <v>368.9980005277226</v>
+        <v>201.0390090028117</v>
       </c>
       <c r="F18" t="n">
-        <v>222.4634425546076</v>
+        <v>54.5044510296967</v>
       </c>
       <c r="G18" t="n">
-        <v>85.23577037147686</v>
+        <v>54.5044510296967</v>
       </c>
       <c r="H18" t="n">
-        <v>85.23577037147686</v>
+        <v>46.68944337289493</v>
       </c>
       <c r="I18" t="n">
-        <v>46.68944337289495</v>
+        <v>46.68944337289493</v>
       </c>
       <c r="J18" t="n">
-        <v>159.7176405858999</v>
+        <v>185.1392358768292</v>
       </c>
       <c r="K18" t="n">
-        <v>522.9712310484351</v>
+        <v>286.5722416969115</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.814907989511</v>
+        <v>757.5367670359723</v>
       </c>
       <c r="M18" t="n">
-        <v>1305.387753056776</v>
+        <v>990.1096121032376</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.52475420662</v>
+        <v>1243.246613253082</v>
       </c>
       <c r="O18" t="n">
-        <v>2136.306615946196</v>
+        <v>1821.028474992657</v>
       </c>
       <c r="P18" t="n">
-        <v>2284.996269409652</v>
+        <v>2284.996269409651</v>
       </c>
       <c r="Q18" t="n">
-        <v>2334.472168644747</v>
+        <v>2334.472168644746</v>
       </c>
       <c r="R18" t="n">
-        <v>2326.629995268228</v>
+        <v>2326.629995268227</v>
       </c>
       <c r="S18" t="n">
-        <v>2181.133062767425</v>
+        <v>2181.133062767424</v>
       </c>
       <c r="T18" t="n">
-        <v>1985.005230504608</v>
+        <v>1985.005230504607</v>
       </c>
       <c r="U18" t="n">
-        <v>1764.37240203796</v>
+        <v>1756.880503901144</v>
       </c>
       <c r="V18" t="n">
-        <v>1529.220293806218</v>
+        <v>1521.728395669402</v>
       </c>
       <c r="W18" t="n">
-        <v>1274.982937078016</v>
+        <v>1267.4910389412</v>
       </c>
       <c r="X18" t="n">
-        <v>1227.598530260578</v>
+        <v>1059.639538735667</v>
       </c>
       <c r="Y18" t="n">
-        <v>1019.838231495624</v>
+        <v>851.8792399707136</v>
       </c>
     </row>
     <row r="19">
@@ -5647,46 +5647,46 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>223.5861976731356</v>
+        <v>63.11910428504067</v>
       </c>
       <c r="C19" t="n">
-        <v>215.1171081333235</v>
+        <v>54.65001474522863</v>
       </c>
       <c r="D19" t="n">
-        <v>215.1171081333235</v>
+        <v>54.65001474522863</v>
       </c>
       <c r="E19" t="n">
-        <v>215.1171081333235</v>
+        <v>54.65001474522863</v>
       </c>
       <c r="F19" t="n">
-        <v>215.1171081333235</v>
+        <v>54.65001474522863</v>
       </c>
       <c r="G19" t="n">
-        <v>46.68944337289495</v>
+        <v>46.68944337289493</v>
       </c>
       <c r="H19" t="n">
-        <v>46.68944337289495</v>
+        <v>46.68944337289493</v>
       </c>
       <c r="I19" t="n">
-        <v>46.68944337289495</v>
+        <v>46.68944337289493</v>
       </c>
       <c r="J19" t="n">
-        <v>46.68944337289495</v>
+        <v>46.68944337289493</v>
       </c>
       <c r="K19" t="n">
-        <v>168.1405915381484</v>
+        <v>168.1405915381483</v>
       </c>
       <c r="L19" t="n">
-        <v>379.0826816258175</v>
+        <v>379.0826816258174</v>
       </c>
       <c r="M19" t="n">
-        <v>611.8806624543172</v>
+        <v>611.880662454317</v>
       </c>
       <c r="N19" t="n">
-        <v>844.5778440496399</v>
+        <v>844.5778440496397</v>
       </c>
       <c r="O19" t="n">
-        <v>1043.495058868663</v>
+        <v>1043.495058868662</v>
       </c>
       <c r="P19" t="n">
         <v>1190.182417928197</v>
@@ -5695,28 +5695,28 @@
         <v>1208.306061780872</v>
       </c>
       <c r="R19" t="n">
-        <v>1208.306061780872</v>
+        <v>1085.884695843493</v>
       </c>
       <c r="S19" t="n">
-        <v>1164.455493404177</v>
+        <v>1042.034127466798</v>
       </c>
       <c r="T19" t="n">
-        <v>1100.058978420713</v>
+        <v>977.6376124833336</v>
       </c>
       <c r="U19" t="n">
-        <v>971.3836688543522</v>
+        <v>848.962302916973</v>
       </c>
       <c r="V19" t="n">
-        <v>822.4997758056936</v>
+        <v>594.2778147110862</v>
       </c>
       <c r="W19" t="n">
-        <v>693.5496991568278</v>
+        <v>372.6155123806381</v>
       </c>
       <c r="X19" t="n">
-        <v>465.5601482588105</v>
+        <v>144.6259614826207</v>
       </c>
       <c r="Y19" t="n">
-        <v>405.2346625033753</v>
+        <v>84.3004757271855</v>
       </c>
     </row>
     <row r="20">
@@ -5726,58 +5726,58 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1338.709817470404</v>
+        <v>1156.994340046475</v>
       </c>
       <c r="C20" t="n">
-        <v>1130.214393918087</v>
+        <v>948.4989164941582</v>
       </c>
       <c r="D20" t="n">
-        <v>932.4157886994315</v>
+        <v>750.7003112755025</v>
       </c>
       <c r="E20" t="n">
-        <v>707.0946294892821</v>
+        <v>525.3791520653531</v>
       </c>
       <c r="F20" t="n">
-        <v>456.5758180877693</v>
+        <v>274.8603406638404</v>
       </c>
       <c r="G20" t="n">
-        <v>200.354581330217</v>
+        <v>200.3545813302169</v>
       </c>
       <c r="H20" t="n">
-        <v>46.68944337289495</v>
+        <v>46.68944337289493</v>
       </c>
       <c r="I20" t="n">
-        <v>46.68944337289495</v>
+        <v>46.68944337289493</v>
       </c>
       <c r="J20" t="n">
-        <v>101.1519812836721</v>
+        <v>126.6660068288529</v>
       </c>
       <c r="K20" t="n">
-        <v>233.5157259013835</v>
+        <v>579.9337098920173</v>
       </c>
       <c r="L20" t="n">
-        <v>488.2889395879198</v>
+        <v>781.0444013511631</v>
       </c>
       <c r="M20" t="n">
-        <v>1066.070801327495</v>
+        <v>1036.488232925301</v>
       </c>
       <c r="N20" t="n">
-        <v>1643.85266306707</v>
+        <v>1300.679221131446</v>
       </c>
       <c r="O20" t="n">
-        <v>1879.985460408263</v>
+        <v>1536.812018472638</v>
       </c>
       <c r="P20" t="n">
-        <v>2047.01833895467</v>
+        <v>2022.425618108813</v>
       </c>
       <c r="Q20" t="n">
-        <v>2334.472168644747</v>
+        <v>2309.87944779889</v>
       </c>
       <c r="R20" t="n">
-        <v>2334.472168644747</v>
+        <v>2334.472168644746</v>
       </c>
       <c r="S20" t="n">
-        <v>2334.472168644747</v>
+        <v>2334.472168644746</v>
       </c>
       <c r="T20" t="n">
         <v>2281.887999758019</v>
@@ -5792,10 +5792,10 @@
         <v>1825.797990183204</v>
       </c>
       <c r="X20" t="n">
-        <v>1794.514802734148</v>
+        <v>1612.799325310219</v>
       </c>
       <c r="Y20" t="n">
-        <v>1564.842564146431</v>
+        <v>1383.127086722502</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>790.0076409701162</v>
+        <v>683.6639029506455</v>
       </c>
       <c r="C21" t="n">
-        <v>776.0217050770841</v>
+        <v>509.2108736695185</v>
       </c>
       <c r="D21" t="n">
-        <v>627.0872954158328</v>
+        <v>368.9980005277226</v>
       </c>
       <c r="E21" t="n">
-        <v>467.8498404103773</v>
+        <v>368.9980005277226</v>
       </c>
       <c r="F21" t="n">
-        <v>321.3152824372622</v>
+        <v>222.4634425546076</v>
       </c>
       <c r="G21" t="n">
-        <v>184.0876102541314</v>
+        <v>85.23577037147686</v>
       </c>
       <c r="H21" t="n">
         <v>85.23577037147686</v>
       </c>
       <c r="I21" t="n">
-        <v>46.68944337289495</v>
+        <v>46.68944337289493</v>
       </c>
       <c r="J21" t="n">
-        <v>60.30911088982451</v>
+        <v>185.1392358768292</v>
       </c>
       <c r="K21" t="n">
-        <v>423.5627013523598</v>
+        <v>286.5722416969115</v>
       </c>
       <c r="L21" t="n">
-        <v>606.2744364430107</v>
+        <v>469.2839767875623</v>
       </c>
       <c r="M21" t="n">
-        <v>838.8472815102762</v>
+        <v>1047.065838527137</v>
       </c>
       <c r="N21" t="n">
-        <v>1416.629143249851</v>
+        <v>1350.548239348129</v>
       </c>
       <c r="O21" t="n">
-        <v>1821.028474992657</v>
+        <v>1928.330101087704</v>
       </c>
       <c r="P21" t="n">
-        <v>2284.996269409652</v>
+        <v>2077.01975455116</v>
       </c>
       <c r="Q21" t="n">
-        <v>2334.472168644747</v>
+        <v>2334.472168644746</v>
       </c>
       <c r="R21" t="n">
-        <v>2326.629995268228</v>
+        <v>2326.629995268227</v>
       </c>
       <c r="S21" t="n">
-        <v>2181.133062767425</v>
+        <v>2181.133062767424</v>
       </c>
       <c r="T21" t="n">
-        <v>1985.005230504608</v>
+        <v>1985.005230504607</v>
       </c>
       <c r="U21" t="n">
-        <v>1756.880503901145</v>
+        <v>1756.880503901144</v>
       </c>
       <c r="V21" t="n">
-        <v>1628.072133688873</v>
+        <v>1521.728395669402</v>
       </c>
       <c r="W21" t="n">
-        <v>1373.834776960671</v>
+        <v>1267.4910389412</v>
       </c>
       <c r="X21" t="n">
-        <v>1165.983276755138</v>
+        <v>1059.639538735667</v>
       </c>
       <c r="Y21" t="n">
-        <v>958.2229779901843</v>
+        <v>851.8792399707136</v>
       </c>
     </row>
     <row r="22">
@@ -5884,46 +5884,46 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>438.7197892920971</v>
+        <v>63.11910428504067</v>
       </c>
       <c r="C22" t="n">
-        <v>430.250699752285</v>
+        <v>54.65001474522863</v>
       </c>
       <c r="D22" t="n">
-        <v>280.1340603399493</v>
+        <v>54.65001474522863</v>
       </c>
       <c r="E22" t="n">
-        <v>173.7732507547747</v>
+        <v>54.65001474522863</v>
       </c>
       <c r="F22" t="n">
-        <v>173.7732507547747</v>
+        <v>54.65001474522863</v>
       </c>
       <c r="G22" t="n">
-        <v>165.812679382441</v>
+        <v>46.68944337289493</v>
       </c>
       <c r="H22" t="n">
-        <v>165.812679382441</v>
+        <v>46.68944337289493</v>
       </c>
       <c r="I22" t="n">
-        <v>46.68944337289495</v>
+        <v>46.68944337289493</v>
       </c>
       <c r="J22" t="n">
-        <v>46.68944337289495</v>
+        <v>46.68944337289493</v>
       </c>
       <c r="K22" t="n">
-        <v>168.1405915381484</v>
+        <v>168.1405915381483</v>
       </c>
       <c r="L22" t="n">
-        <v>379.0826816258175</v>
+        <v>379.0826816258174</v>
       </c>
       <c r="M22" t="n">
-        <v>611.8806624543172</v>
+        <v>611.880662454317</v>
       </c>
       <c r="N22" t="n">
-        <v>844.5778440496399</v>
+        <v>844.5778440496397</v>
       </c>
       <c r="O22" t="n">
-        <v>1043.495058868663</v>
+        <v>1043.495058868662</v>
       </c>
       <c r="P22" t="n">
         <v>1190.182417928197</v>
@@ -5935,25 +5935,25 @@
         <v>1208.306061780872</v>
       </c>
       <c r="S22" t="n">
-        <v>1164.455493404177</v>
+        <v>1164.455493404176</v>
       </c>
       <c r="T22" t="n">
-        <v>1100.058978420713</v>
+        <v>939.5918850326173</v>
       </c>
       <c r="U22" t="n">
-        <v>971.3836688543522</v>
+        <v>650.4494820781619</v>
       </c>
       <c r="V22" t="n">
-        <v>877.1662740365603</v>
+        <v>556.2320872603698</v>
       </c>
       <c r="W22" t="n">
-        <v>748.2161973876945</v>
+        <v>372.6155123806381</v>
       </c>
       <c r="X22" t="n">
-        <v>680.693739877772</v>
+        <v>144.6259614826207</v>
       </c>
       <c r="Y22" t="n">
-        <v>459.9011607342419</v>
+        <v>84.3004757271855</v>
       </c>
     </row>
     <row r="23">
@@ -5963,58 +5963,58 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1342.418296601505</v>
+        <v>1342.418296601506</v>
       </c>
       <c r="C23" t="n">
-        <v>1133.922873049188</v>
+        <v>1133.922873049189</v>
       </c>
       <c r="D23" t="n">
-        <v>936.1242678305327</v>
+        <v>936.1242678305331</v>
       </c>
       <c r="E23" t="n">
-        <v>710.8031086203836</v>
+        <v>710.8031086203837</v>
       </c>
       <c r="F23" t="n">
-        <v>460.2842972188708</v>
+        <v>460.284297218871</v>
       </c>
       <c r="G23" t="n">
-        <v>204.0630604613175</v>
+        <v>204.0630604613176</v>
       </c>
       <c r="H23" t="n">
-        <v>50.39792250399552</v>
+        <v>50.39792250399555</v>
       </c>
       <c r="I23" t="n">
-        <v>50.39792250399552</v>
+        <v>50.39792250399555</v>
       </c>
       <c r="J23" t="n">
-        <v>272.2661094351257</v>
+        <v>253.6785050235333</v>
       </c>
       <c r="K23" t="n">
-        <v>725.5338124982902</v>
+        <v>706.9462080866977</v>
       </c>
       <c r="L23" t="n">
-        <v>1118.248740299148</v>
+        <v>908.0568995458434</v>
       </c>
       <c r="M23" t="n">
-        <v>1373.692571873286</v>
+        <v>1163.500731119982</v>
       </c>
       <c r="N23" t="n">
-        <v>1637.88356007943</v>
+        <v>1427.691719326126</v>
       </c>
       <c r="O23" t="n">
-        <v>2251.008536870741</v>
+        <v>2040.816696117437</v>
       </c>
       <c r="P23" t="n">
-        <v>2418.041415417149</v>
+        <v>2207.849574663844</v>
       </c>
       <c r="Q23" t="n">
-        <v>2495.30340435392</v>
+        <v>2495.303404353921</v>
       </c>
       <c r="R23" t="n">
-        <v>2519.896125199776</v>
+        <v>2519.896125199777</v>
       </c>
       <c r="S23" t="n">
-        <v>2519.896125199776</v>
+        <v>2519.896125199777</v>
       </c>
       <c r="T23" t="n">
         <v>2467.311956313049</v>
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>869.0878595056754</v>
+        <v>869.0878595056763</v>
       </c>
       <c r="C24" t="n">
-        <v>694.6348302245484</v>
+        <v>694.6348302245493</v>
       </c>
       <c r="D24" t="n">
-        <v>545.7004205632971</v>
+        <v>545.7004205632981</v>
       </c>
       <c r="E24" t="n">
-        <v>386.4629655578416</v>
+        <v>386.4629655578426</v>
       </c>
       <c r="F24" t="n">
-        <v>239.9284075847266</v>
+        <v>239.9284075847275</v>
       </c>
       <c r="G24" t="n">
-        <v>187.796089385232</v>
+        <v>102.7007354015967</v>
       </c>
       <c r="H24" t="n">
-        <v>88.94424950257743</v>
+        <v>88.94424950257748</v>
       </c>
       <c r="I24" t="n">
-        <v>50.39792250399552</v>
+        <v>50.39792250399555</v>
       </c>
       <c r="J24" t="n">
         <v>188.8477150079298</v>
       </c>
       <c r="K24" t="n">
-        <v>290.2807208280122</v>
+        <v>367.0410079570951</v>
       </c>
       <c r="L24" t="n">
-        <v>840.1243977690878</v>
+        <v>549.7527430477459</v>
       </c>
       <c r="M24" t="n">
-        <v>1463.798688756032</v>
+        <v>1173.427034034691</v>
       </c>
       <c r="N24" t="n">
-        <v>1716.935689905877</v>
+        <v>1797.101325021636</v>
       </c>
       <c r="O24" t="n">
-        <v>1926.286796431928</v>
+        <v>2006.452431547687</v>
       </c>
       <c r="P24" t="n">
-        <v>2262.44371110619</v>
+        <v>2470.420225964681</v>
       </c>
       <c r="Q24" t="n">
-        <v>2519.896125199776</v>
+        <v>2519.896125199777</v>
       </c>
       <c r="R24" t="n">
-        <v>2512.053951823256</v>
+        <v>2512.053951823257</v>
       </c>
       <c r="S24" t="n">
-        <v>2366.557019322453</v>
+        <v>2366.557019322454</v>
       </c>
       <c r="T24" t="n">
-        <v>2170.429187059637</v>
+        <v>2170.429187059638</v>
       </c>
       <c r="U24" t="n">
-        <v>1942.304460456174</v>
+        <v>1942.304460456175</v>
       </c>
       <c r="V24" t="n">
-        <v>1707.152352224432</v>
+        <v>1707.152352224433</v>
       </c>
       <c r="W24" t="n">
-        <v>1452.91499549623</v>
+        <v>1452.914995496231</v>
       </c>
       <c r="X24" t="n">
-        <v>1245.063495290697</v>
+        <v>1245.063495290698</v>
       </c>
       <c r="Y24" t="n">
-        <v>1037.303196525743</v>
+        <v>1037.303196525744</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>222.150767323745</v>
+        <v>216.944222828477</v>
       </c>
       <c r="C25" t="n">
-        <v>213.6816777839329</v>
+        <v>208.475133288665</v>
       </c>
       <c r="D25" t="n">
-        <v>63.56503837159718</v>
+        <v>58.35849387632925</v>
       </c>
       <c r="E25" t="n">
-        <v>63.56503837159718</v>
+        <v>58.35849387632925</v>
       </c>
       <c r="F25" t="n">
-        <v>63.56503837159718</v>
+        <v>58.35849387632925</v>
       </c>
       <c r="G25" t="n">
-        <v>55.60446699926348</v>
+        <v>50.39792250399555</v>
       </c>
       <c r="H25" t="n">
-        <v>55.60446699926348</v>
+        <v>50.39792250399555</v>
       </c>
       <c r="I25" t="n">
-        <v>55.60446699926348</v>
+        <v>50.39792250399555</v>
       </c>
       <c r="J25" t="n">
-        <v>50.39792250399552</v>
+        <v>50.39792250399555</v>
       </c>
       <c r="K25" t="n">
         <v>171.849070669249</v>
       </c>
       <c r="L25" t="n">
-        <v>382.7911607569181</v>
+        <v>382.791160756918</v>
       </c>
       <c r="M25" t="n">
-        <v>615.5891415854178</v>
+        <v>615.5891415854176</v>
       </c>
       <c r="N25" t="n">
-        <v>848.2863231807405</v>
+        <v>848.2863231807403</v>
       </c>
       <c r="O25" t="n">
-        <v>1047.203537999764</v>
+        <v>1047.203537999763</v>
       </c>
       <c r="P25" t="n">
-        <v>1193.890897059298</v>
+        <v>1193.890897059297</v>
       </c>
       <c r="Q25" t="n">
         <v>1212.014540911973</v>
       </c>
       <c r="R25" t="n">
-        <v>1212.014540911973</v>
+        <v>1089.593174974594</v>
       </c>
       <c r="S25" t="n">
-        <v>1168.163972535277</v>
+        <v>1045.742606597898</v>
       </c>
       <c r="T25" t="n">
-        <v>1103.767457551814</v>
+        <v>878.2834119570927</v>
       </c>
       <c r="U25" t="n">
-        <v>975.092147985453</v>
+        <v>589.1410090026372</v>
       </c>
       <c r="V25" t="n">
-        <v>880.8747531676611</v>
+        <v>494.9236141848453</v>
       </c>
       <c r="W25" t="n">
-        <v>692.1142688074373</v>
+        <v>365.9735375359795</v>
       </c>
       <c r="X25" t="n">
-        <v>624.5918112975148</v>
+        <v>298.4510800260571</v>
       </c>
       <c r="Y25" t="n">
-        <v>403.7992321539847</v>
+        <v>238.1255942706219</v>
       </c>
     </row>
     <row r="26">
@@ -6200,7 +6200,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1871.021482161256</v>
+        <v>1871.021482161255</v>
       </c>
       <c r="C26" t="n">
         <v>1582.292511914891</v>
@@ -6212,37 +6212,37 @@
         <v>998.7056540979913</v>
       </c>
       <c r="F26" t="n">
-        <v>667.9532960024314</v>
+        <v>667.9532960024312</v>
       </c>
       <c r="G26" t="n">
-        <v>331.498512550831</v>
+        <v>331.4985125508315</v>
       </c>
       <c r="H26" t="n">
-        <v>97.59982789946169</v>
+        <v>97.5998278994617</v>
       </c>
       <c r="I26" t="n">
-        <v>73.54026249367041</v>
+        <v>73.5402624936704</v>
       </c>
       <c r="J26" t="n">
-        <v>295.4084494248006</v>
+        <v>128.0028004044474</v>
       </c>
       <c r="K26" t="n">
-        <v>748.6761524879651</v>
+        <v>581.2705034676119</v>
       </c>
       <c r="L26" t="n">
-        <v>949.786843947111</v>
+        <v>1195.865797331704</v>
       </c>
       <c r="M26" t="n">
-        <v>1650.249073679153</v>
+        <v>1569.063554346092</v>
       </c>
       <c r="N26" t="n">
-        <v>2347.413517053162</v>
+        <v>2266.227997720101</v>
       </c>
       <c r="O26" t="n">
-        <v>2960.538493844473</v>
+        <v>2879.352974511412</v>
       </c>
       <c r="P26" t="n">
-        <v>3446.152093480648</v>
+        <v>3364.966574147586</v>
       </c>
       <c r="Q26" t="n">
         <v>3652.420403837664</v>
@@ -6257,16 +6257,16 @@
         <v>3477.316422037085</v>
       </c>
       <c r="U26" t="n">
-        <v>3303.890221605717</v>
+        <v>3303.890221605716</v>
       </c>
       <c r="V26" t="n">
-        <v>3053.060880956194</v>
+        <v>3053.060880956193</v>
       </c>
       <c r="W26" t="n">
-        <v>2780.525772380127</v>
+        <v>2780.525772380126</v>
       </c>
       <c r="X26" t="n">
-        <v>2487.293560813095</v>
+        <v>2487.293560813094</v>
       </c>
       <c r="Y26" t="n">
         <v>2177.38777553133</v>
@@ -6300,16 +6300,16 @@
         <v>112.0865894922523</v>
       </c>
       <c r="I27" t="n">
-        <v>73.54026249367041</v>
+        <v>73.5402624936704</v>
       </c>
       <c r="J27" t="n">
-        <v>87.15993001059998</v>
+        <v>87.15993001059991</v>
       </c>
       <c r="K27" t="n">
-        <v>188.5929358306824</v>
+        <v>188.5929358306823</v>
       </c>
       <c r="L27" t="n">
-        <v>738.436612771758</v>
+        <v>738.4366127717576</v>
       </c>
       <c r="M27" t="n">
         <v>1432.057470951523</v>
@@ -6318,10 +6318,10 @@
         <v>1685.194472101367</v>
       </c>
       <c r="O27" t="n">
-        <v>2221.991751616044</v>
+        <v>2284.469274711381</v>
       </c>
       <c r="P27" t="n">
-        <v>2370.681405079501</v>
+        <v>2433.158928174837</v>
       </c>
       <c r="Q27" t="n">
         <v>2628.133819173087</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>565.9737676641313</v>
+        <v>565.9737676641312</v>
       </c>
       <c r="C28" t="n">
-        <v>477.2711314302718</v>
+        <v>477.2711314302717</v>
       </c>
       <c r="D28" t="n">
-        <v>407.3880387119835</v>
+        <v>407.3880387119834</v>
       </c>
       <c r="E28" t="n">
         <v>339.7084918236378</v>
       </c>
       <c r="F28" t="n">
-        <v>273.0520910197749</v>
+        <v>273.0520910197748</v>
       </c>
       <c r="G28" t="n">
         <v>184.8579729533937</v>
@@ -6379,40 +6379,40 @@
         <v>112.429951809169</v>
       </c>
       <c r="I28" t="n">
-        <v>73.54026249367041</v>
+        <v>73.5402624936704</v>
       </c>
       <c r="J28" t="n">
-        <v>147.0742273486942</v>
+        <v>147.074227348694</v>
       </c>
       <c r="K28" t="n">
-        <v>347.1622746287837</v>
+        <v>347.1622746287833</v>
       </c>
       <c r="L28" t="n">
-        <v>636.7412638312887</v>
+        <v>636.7412638312881</v>
       </c>
       <c r="M28" t="n">
-        <v>948.1761437746243</v>
+        <v>948.1761437746236</v>
       </c>
       <c r="N28" t="n">
-        <v>1259.510224484783</v>
+        <v>1259.510224484782</v>
       </c>
       <c r="O28" t="n">
-        <v>1537.064338418642</v>
+        <v>1537.064338418641</v>
       </c>
       <c r="P28" t="n">
-        <v>1762.388596593012</v>
+        <v>1762.388596593011</v>
       </c>
       <c r="Q28" t="n">
-        <v>1859.149139560523</v>
+        <v>1859.149139560521</v>
       </c>
       <c r="R28" t="n">
-        <v>1816.961320317191</v>
+        <v>1816.96132031719</v>
       </c>
       <c r="S28" t="n">
-        <v>1692.877205246449</v>
+        <v>1692.877205246448</v>
       </c>
       <c r="T28" t="n">
-        <v>1548.247143568937</v>
+        <v>1548.247143568936</v>
       </c>
       <c r="U28" t="n">
         <v>1339.338287308529</v>
@@ -6421,13 +6421,13 @@
         <v>1164.887345796689</v>
       </c>
       <c r="W28" t="n">
-        <v>955.7037224537762</v>
+        <v>955.703722453776</v>
       </c>
       <c r="X28" t="n">
-        <v>807.9477182498063</v>
+        <v>807.947718249806</v>
       </c>
       <c r="Y28" t="n">
-        <v>667.3886858003236</v>
+        <v>667.3886858003234</v>
       </c>
     </row>
     <row r="29">
@@ -6446,7 +6446,7 @@
         <v>1304.260360002188</v>
       </c>
       <c r="E29" t="n">
-        <v>998.7056540979913</v>
+        <v>998.7056540979916</v>
       </c>
       <c r="F29" t="n">
         <v>667.9532960024312</v>
@@ -6455,55 +6455,55 @@
         <v>331.498512550831</v>
       </c>
       <c r="H29" t="n">
-        <v>97.5998278994617</v>
+        <v>97.59982789946169</v>
       </c>
       <c r="I29" t="n">
-        <v>73.54026249367041</v>
+        <v>73.54026249367038</v>
       </c>
       <c r="J29" t="n">
-        <v>295.4084494248006</v>
+        <v>295.4084494248004</v>
       </c>
       <c r="K29" t="n">
-        <v>748.6761524879651</v>
+        <v>427.7721940425117</v>
       </c>
       <c r="L29" t="n">
-        <v>949.786843947111</v>
+        <v>1042.367487906603</v>
       </c>
       <c r="M29" t="n">
-        <v>1650.249073679153</v>
+        <v>1742.829717638646</v>
       </c>
       <c r="N29" t="n">
-        <v>2347.413517053162</v>
+        <v>2439.994161012654</v>
       </c>
       <c r="O29" t="n">
-        <v>2879.352974511412</v>
+        <v>2879.352974511411</v>
       </c>
       <c r="P29" t="n">
-        <v>3364.966574147587</v>
+        <v>3364.966574147586</v>
       </c>
       <c r="Q29" t="n">
-        <v>3652.420403837664</v>
+        <v>3652.420403837663</v>
       </c>
       <c r="R29" t="n">
-        <v>3677.01312468352</v>
+        <v>3677.013124683519</v>
       </c>
       <c r="S29" t="n">
-        <v>3610.13413761786</v>
+        <v>3610.134137617858</v>
       </c>
       <c r="T29" t="n">
-        <v>3477.316422037085</v>
+        <v>3477.316422037084</v>
       </c>
       <c r="U29" t="n">
-        <v>3303.890221605717</v>
+        <v>3303.890221605716</v>
       </c>
       <c r="V29" t="n">
-        <v>3053.060880956194</v>
+        <v>3053.060880956193</v>
       </c>
       <c r="W29" t="n">
-        <v>2780.525772380127</v>
+        <v>2780.525772380126</v>
       </c>
       <c r="X29" t="n">
-        <v>2487.293560813095</v>
+        <v>2487.293560813094</v>
       </c>
       <c r="Y29" t="n">
         <v>2177.38777553133</v>
@@ -6537,25 +6537,25 @@
         <v>112.0865894922523</v>
       </c>
       <c r="I30" t="n">
-        <v>73.54026249367041</v>
+        <v>73.54026249367038</v>
       </c>
       <c r="J30" t="n">
-        <v>87.15993001059998</v>
+        <v>87.15993001059989</v>
       </c>
       <c r="K30" t="n">
-        <v>188.5929358306824</v>
+        <v>450.4135204731351</v>
       </c>
       <c r="L30" t="n">
-        <v>371.3046709213334</v>
+        <v>633.1252555637859</v>
       </c>
       <c r="M30" t="n">
-        <v>1064.925529101099</v>
+        <v>865.6981006310513</v>
       </c>
       <c r="N30" t="n">
-        <v>1792.611480851061</v>
+        <v>1515.415322910983</v>
       </c>
       <c r="O30" t="n">
-        <v>2391.886283461075</v>
+        <v>2114.690125520997</v>
       </c>
       <c r="P30" t="n">
         <v>2578.657919937991</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>565.9737676641311</v>
+        <v>565.9737676641312</v>
       </c>
       <c r="C31" t="n">
-        <v>477.2711314302715</v>
+        <v>477.2711314302717</v>
       </c>
       <c r="D31" t="n">
-        <v>407.3880387119832</v>
+        <v>407.3880387119834</v>
       </c>
       <c r="E31" t="n">
-        <v>339.7084918236375</v>
+        <v>339.7084918236378</v>
       </c>
       <c r="F31" t="n">
-        <v>273.0520910197747</v>
+        <v>273.0520910197748</v>
       </c>
       <c r="G31" t="n">
-        <v>184.8579729533935</v>
+        <v>184.8579729533937</v>
       </c>
       <c r="H31" t="n">
-        <v>112.4299518091688</v>
+        <v>112.429951809169</v>
       </c>
       <c r="I31" t="n">
-        <v>73.54026249367041</v>
+        <v>73.54026249367038</v>
       </c>
       <c r="J31" t="n">
         <v>147.0742273486941</v>
@@ -6625,10 +6625,10 @@
         <v>347.1622746287834</v>
       </c>
       <c r="L31" t="n">
-        <v>636.7412638312884</v>
+        <v>636.7412638312883</v>
       </c>
       <c r="M31" t="n">
-        <v>948.1761437746241</v>
+        <v>948.1761437746238</v>
       </c>
       <c r="N31" t="n">
         <v>1259.510224484783</v>
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1871.021482161256</v>
+        <v>1871.021482161255</v>
       </c>
       <c r="C32" t="n">
-        <v>1582.292511914892</v>
+        <v>1582.292511914891</v>
       </c>
       <c r="D32" t="n">
         <v>1304.260360002188</v>
       </c>
       <c r="E32" t="n">
-        <v>998.7056540979916</v>
+        <v>998.7056540979913</v>
       </c>
       <c r="F32" t="n">
-        <v>667.9532960024314</v>
+        <v>667.9532960024312</v>
       </c>
       <c r="G32" t="n">
-        <v>331.4985125508312</v>
+        <v>331.4985125508311</v>
       </c>
       <c r="H32" t="n">
-        <v>97.5998278994617</v>
+        <v>97.59982789946164</v>
       </c>
       <c r="I32" t="n">
-        <v>73.54026249367041</v>
+        <v>73.54026249367038</v>
       </c>
       <c r="J32" t="n">
-        <v>295.4084494248006</v>
+        <v>295.4084494248004</v>
       </c>
       <c r="K32" t="n">
-        <v>748.6761524879651</v>
+        <v>748.6761524879648</v>
       </c>
       <c r="L32" t="n">
         <v>1363.271446352057</v>
       </c>
       <c r="M32" t="n">
-        <v>2063.733676084099</v>
+        <v>1946.055733796209</v>
       </c>
       <c r="N32" t="n">
-        <v>2501.012559319263</v>
+        <v>2643.220177170218</v>
       </c>
       <c r="O32" t="n">
-        <v>3114.137536110574</v>
+        <v>2879.352974511411</v>
       </c>
       <c r="P32" t="n">
-        <v>3599.751135746749</v>
+        <v>3364.966574147586</v>
       </c>
       <c r="Q32" t="n">
-        <v>3677.01312468352</v>
+        <v>3652.420403837663</v>
       </c>
       <c r="R32" t="n">
-        <v>3677.01312468352</v>
+        <v>3677.013124683519</v>
       </c>
       <c r="S32" t="n">
-        <v>3610.13413761786</v>
+        <v>3610.134137617858</v>
       </c>
       <c r="T32" t="n">
-        <v>3477.316422037085</v>
+        <v>3477.316422037083</v>
       </c>
       <c r="U32" t="n">
-        <v>3303.890221605717</v>
+        <v>3303.890221605715</v>
       </c>
       <c r="V32" t="n">
-        <v>3053.060880956194</v>
+        <v>3053.060880956192</v>
       </c>
       <c r="W32" t="n">
-        <v>2780.525772380127</v>
+        <v>2780.525772380126</v>
       </c>
       <c r="X32" t="n">
-        <v>2487.293560813095</v>
+        <v>2487.293560813093</v>
       </c>
       <c r="Y32" t="n">
-        <v>2177.38777553133</v>
+        <v>2177.387775531329</v>
       </c>
     </row>
     <row r="33">
@@ -6774,28 +6774,28 @@
         <v>112.0865894922523</v>
       </c>
       <c r="I33" t="n">
-        <v>73.54026249367041</v>
+        <v>73.54026249367038</v>
       </c>
       <c r="J33" t="n">
-        <v>87.15993001059998</v>
+        <v>211.9900549976046</v>
       </c>
       <c r="K33" t="n">
-        <v>188.5929358306824</v>
+        <v>313.423060817687</v>
       </c>
       <c r="L33" t="n">
-        <v>738.436612771758</v>
+        <v>799.3103500187565</v>
       </c>
       <c r="M33" t="n">
-        <v>971.0094578390234</v>
+        <v>1492.931208198522</v>
       </c>
       <c r="N33" t="n">
-        <v>1698.695409588986</v>
+        <v>2220.617159948484</v>
       </c>
       <c r="O33" t="n">
-        <v>1908.046516115037</v>
+        <v>2429.968266474535</v>
       </c>
       <c r="P33" t="n">
-        <v>2370.681405079501</v>
+        <v>2578.657919937991</v>
       </c>
       <c r="Q33" t="n">
         <v>2628.133819173087</v>
@@ -6835,25 +6835,25 @@
         <v>565.9737676641312</v>
       </c>
       <c r="C34" t="n">
-        <v>477.2711314302716</v>
+        <v>477.2711314302717</v>
       </c>
       <c r="D34" t="n">
-        <v>407.3880387119833</v>
+        <v>407.3880387119835</v>
       </c>
       <c r="E34" t="n">
-        <v>339.7084918236376</v>
+        <v>339.7084918236378</v>
       </c>
       <c r="F34" t="n">
-        <v>273.0520910197747</v>
+        <v>273.0520910197749</v>
       </c>
       <c r="G34" t="n">
-        <v>184.8579729533935</v>
+        <v>184.8579729533938</v>
       </c>
       <c r="H34" t="n">
         <v>112.429951809169</v>
       </c>
       <c r="I34" t="n">
-        <v>73.54026249367041</v>
+        <v>73.54026249367038</v>
       </c>
       <c r="J34" t="n">
         <v>147.0742273486941</v>
@@ -6871,13 +6871,13 @@
         <v>1259.510224484783</v>
       </c>
       <c r="O34" t="n">
-        <v>1537.064338418642</v>
+        <v>1537.064338418641</v>
       </c>
       <c r="P34" t="n">
-        <v>1762.388596593012</v>
+        <v>1762.388596593011</v>
       </c>
       <c r="Q34" t="n">
-        <v>1859.149139560523</v>
+        <v>1859.149139560522</v>
       </c>
       <c r="R34" t="n">
         <v>1816.961320317191</v>
@@ -6892,10 +6892,10 @@
         <v>1339.338287308529</v>
       </c>
       <c r="V34" t="n">
-        <v>1164.887345796689</v>
+        <v>1164.88734579669</v>
       </c>
       <c r="W34" t="n">
-        <v>955.7037224537761</v>
+        <v>955.7037224537768</v>
       </c>
       <c r="X34" t="n">
         <v>807.947718249806</v>
@@ -6914,16 +6914,16 @@
         <v>1426.088700803848</v>
       </c>
       <c r="C35" t="n">
-        <v>1204.238717623145</v>
+        <v>1204.238717623144</v>
       </c>
       <c r="D35" t="n">
-        <v>993.085552776102</v>
+        <v>993.0855527761015</v>
       </c>
       <c r="E35" t="n">
-        <v>754.4098339375655</v>
+        <v>754.4098339375651</v>
       </c>
       <c r="F35" t="n">
-        <v>490.5364629076657</v>
+        <v>490.5364629076653</v>
       </c>
       <c r="G35" t="n">
         <v>220.9606665217257</v>
@@ -6935,28 +6935,28 @@
         <v>53.94096893601659</v>
       </c>
       <c r="J35" t="n">
-        <v>275.8091558671467</v>
+        <v>108.4035068467936</v>
       </c>
       <c r="K35" t="n">
-        <v>729.0768589303112</v>
+        <v>240.7672514645049</v>
       </c>
       <c r="L35" t="n">
-        <v>1319.993782746057</v>
+        <v>441.8779429236507</v>
       </c>
       <c r="M35" t="n">
-        <v>1575.437614320195</v>
+        <v>697.3217744977889</v>
       </c>
       <c r="N35" t="n">
-        <v>1839.62860252634</v>
+        <v>1286.263319837411</v>
       </c>
       <c r="O35" t="n">
-        <v>2452.753579317651</v>
+        <v>1899.388296628721</v>
       </c>
       <c r="P35" t="n">
-        <v>2619.786457864058</v>
+        <v>2385.001896264896</v>
       </c>
       <c r="Q35" t="n">
-        <v>2697.048446800829</v>
+        <v>2672.455725954973</v>
       </c>
       <c r="R35" t="n">
         <v>2697.048446800829</v>
@@ -6968,10 +6968,10 @@
         <v>2631.109718285715</v>
       </c>
       <c r="U35" t="n">
-        <v>2524.562504920008</v>
+        <v>2524.562504920007</v>
       </c>
       <c r="V35" t="n">
-        <v>2340.612151336145</v>
+        <v>2340.612151336144</v>
       </c>
       <c r="W35" t="n">
         <v>2134.956029825738</v>
@@ -7008,22 +7008,22 @@
         <v>191.3391358172531</v>
       </c>
       <c r="H36" t="n">
-        <v>92.48729593459851</v>
+        <v>92.48729593459852</v>
       </c>
       <c r="I36" t="n">
         <v>53.94096893601659</v>
       </c>
       <c r="J36" t="n">
-        <v>192.3907614399509</v>
+        <v>192.3907614399508</v>
       </c>
       <c r="K36" t="n">
-        <v>555.6443519024862</v>
+        <v>555.6443519024861</v>
       </c>
       <c r="L36" t="n">
-        <v>1105.488028843562</v>
+        <v>738.3560869931368</v>
       </c>
       <c r="M36" t="n">
-        <v>1338.060873910827</v>
+        <v>1010.243719995596</v>
       </c>
       <c r="N36" t="n">
         <v>1677.763210578802</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>106.433448658814</v>
+        <v>106.4334486588142</v>
       </c>
       <c r="C37" t="n">
-        <v>84.60979949061493</v>
+        <v>84.60979949061506</v>
       </c>
       <c r="D37" t="n">
-        <v>81.605693837987</v>
+        <v>81.6056938379871</v>
       </c>
       <c r="E37" t="n">
-        <v>80.80513401530169</v>
+        <v>80.80513401530176</v>
       </c>
       <c r="F37" t="n">
-        <v>80.80513401530169</v>
+        <v>80.80513401530176</v>
       </c>
       <c r="G37" t="n">
-        <v>59.49000301458092</v>
+        <v>59.49000301458095</v>
       </c>
       <c r="H37" t="n">
         <v>53.94096893601659</v>
@@ -7099,13 +7099,13 @@
         <v>175.39211710127</v>
       </c>
       <c r="L37" t="n">
-        <v>386.3342071889391</v>
+        <v>386.334207188939</v>
       </c>
       <c r="M37" t="n">
-        <v>619.1321880174388</v>
+        <v>619.1321880174387</v>
       </c>
       <c r="N37" t="n">
-        <v>851.8293696127615</v>
+        <v>851.8293696127614</v>
       </c>
       <c r="O37" t="n">
         <v>1050.746584431784</v>
@@ -7117,28 +7117,28 @@
         <v>1215.557587343994</v>
       </c>
       <c r="R37" t="n">
-        <v>1116.614172306006</v>
+        <v>1215.557587343994</v>
       </c>
       <c r="S37" t="n">
-        <v>912.2965105412162</v>
+        <v>1011.239925579203</v>
       </c>
       <c r="T37" t="n">
-        <v>834.5454359293651</v>
+        <v>933.4888509673523</v>
       </c>
       <c r="U37" t="n">
-        <v>692.5155667346176</v>
+        <v>692.5155667346178</v>
       </c>
       <c r="V37" t="n">
-        <v>584.9436122884384</v>
+        <v>584.9436122884387</v>
       </c>
       <c r="W37" t="n">
-        <v>295.5264422514778</v>
+        <v>295.526442251478</v>
       </c>
       <c r="X37" t="n">
-        <v>214.6494251131683</v>
+        <v>214.6494251131685</v>
       </c>
       <c r="Y37" t="n">
-        <v>140.9693797293459</v>
+        <v>140.9693797293461</v>
       </c>
     </row>
     <row r="38">
@@ -7148,58 +7148,58 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1426.088700803849</v>
+        <v>1426.088700803848</v>
       </c>
       <c r="C38" t="n">
         <v>1204.238717623145</v>
       </c>
       <c r="D38" t="n">
-        <v>993.0855527761023</v>
+        <v>993.085552776102</v>
       </c>
       <c r="E38" t="n">
-        <v>754.4098339375658</v>
+        <v>754.4098339375655</v>
       </c>
       <c r="F38" t="n">
-        <v>490.5364629076661</v>
+        <v>490.5364629076657</v>
       </c>
       <c r="G38" t="n">
         <v>220.9606665217257</v>
       </c>
       <c r="H38" t="n">
-        <v>53.94096893601661</v>
+        <v>53.94096893601659</v>
       </c>
       <c r="I38" t="n">
-        <v>53.94096893601661</v>
+        <v>53.94096893601659</v>
       </c>
       <c r="J38" t="n">
-        <v>108.4035068467937</v>
+        <v>108.4035068467936</v>
       </c>
       <c r="K38" t="n">
-        <v>240.7672514645052</v>
+        <v>460.1231685697112</v>
       </c>
       <c r="L38" t="n">
-        <v>441.8779429236511</v>
+        <v>1074.718462433803</v>
       </c>
       <c r="M38" t="n">
-        <v>697.3217744977894</v>
+        <v>1742.237953017008</v>
       </c>
       <c r="N38" t="n">
-        <v>1310.856040683267</v>
+        <v>2006.428941223153</v>
       </c>
       <c r="O38" t="n">
-        <v>1923.981017474578</v>
+        <v>2242.561738564345</v>
       </c>
       <c r="P38" t="n">
         <v>2409.594617110753</v>
       </c>
       <c r="Q38" t="n">
-        <v>2697.04844680083</v>
+        <v>2697.048446800829</v>
       </c>
       <c r="R38" t="n">
-        <v>2697.04844680083</v>
+        <v>2697.048446800829</v>
       </c>
       <c r="S38" t="n">
-        <v>2697.04844680083</v>
+        <v>2697.048446800829</v>
       </c>
       <c r="T38" t="n">
         <v>2631.109718285715</v>
@@ -7211,13 +7211,13 @@
         <v>2340.612151336145</v>
       </c>
       <c r="W38" t="n">
-        <v>2134.956029825739</v>
+        <v>2134.956029825738</v>
       </c>
       <c r="X38" t="n">
-        <v>1908.602805324367</v>
+        <v>1908.602805324366</v>
       </c>
       <c r="Y38" t="n">
-        <v>1665.576007108263</v>
+        <v>1665.576007108262</v>
       </c>
     </row>
     <row r="39">
@@ -7245,25 +7245,25 @@
         <v>191.3391358172531</v>
       </c>
       <c r="H39" t="n">
-        <v>92.48729593459854</v>
+        <v>92.48729593459852</v>
       </c>
       <c r="I39" t="n">
-        <v>53.94096893601661</v>
+        <v>53.94096893601659</v>
       </c>
       <c r="J39" t="n">
-        <v>192.3907614399509</v>
+        <v>67.5606364529461</v>
       </c>
       <c r="K39" t="n">
-        <v>555.6443519024862</v>
+        <v>168.9936422730285</v>
       </c>
       <c r="L39" t="n">
-        <v>738.3560869931371</v>
+        <v>351.7053773636793</v>
       </c>
       <c r="M39" t="n">
-        <v>970.9289320604025</v>
+        <v>935.598164865172</v>
       </c>
       <c r="N39" t="n">
-        <v>1638.448422643608</v>
+        <v>1603.117655448377</v>
       </c>
       <c r="O39" t="n">
         <v>2202.392458058391</v>
@@ -7306,43 +7306,43 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>352.489397456509</v>
+        <v>106.4334486588142</v>
       </c>
       <c r="C40" t="n">
-        <v>330.6657482883099</v>
+        <v>84.60979949061506</v>
       </c>
       <c r="D40" t="n">
-        <v>228.7182275976948</v>
+        <v>81.6056938379871</v>
       </c>
       <c r="E40" t="n">
-        <v>80.80513401530172</v>
+        <v>80.80513401530176</v>
       </c>
       <c r="F40" t="n">
-        <v>80.80513401530172</v>
+        <v>80.80513401530176</v>
       </c>
       <c r="G40" t="n">
-        <v>59.49000301458094</v>
+        <v>59.49000301458095</v>
       </c>
       <c r="H40" t="n">
-        <v>53.94096893601661</v>
+        <v>53.94096893601659</v>
       </c>
       <c r="I40" t="n">
-        <v>53.94096893601661</v>
+        <v>53.94096893601659</v>
       </c>
       <c r="J40" t="n">
-        <v>53.94096893601661</v>
+        <v>53.94096893601659</v>
       </c>
       <c r="K40" t="n">
-        <v>175.3921171012701</v>
+        <v>175.39211710127</v>
       </c>
       <c r="L40" t="n">
-        <v>386.3342071889392</v>
+        <v>386.334207188939</v>
       </c>
       <c r="M40" t="n">
-        <v>619.1321880174388</v>
+        <v>619.1321880174387</v>
       </c>
       <c r="N40" t="n">
-        <v>851.8293696127615</v>
+        <v>851.8293696127614</v>
       </c>
       <c r="O40" t="n">
         <v>1050.746584431784</v>
@@ -7357,25 +7357,25 @@
         <v>1215.557587343994</v>
       </c>
       <c r="S40" t="n">
-        <v>1158.352459338911</v>
+        <v>1011.239925579203</v>
       </c>
       <c r="T40" t="n">
-        <v>1080.60138472706</v>
+        <v>786.3763172076444</v>
       </c>
       <c r="U40" t="n">
-        <v>791.4589817726047</v>
+        <v>545.40303297491</v>
       </c>
       <c r="V40" t="n">
-        <v>683.8870273264256</v>
+        <v>437.8310785287309</v>
       </c>
       <c r="W40" t="n">
-        <v>541.5823910491728</v>
+        <v>295.526442251478</v>
       </c>
       <c r="X40" t="n">
-        <v>460.7053739108632</v>
+        <v>214.6494251131685</v>
       </c>
       <c r="Y40" t="n">
-        <v>387.0253285270409</v>
+        <v>140.9693797293461</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1426.088700803849</v>
+        <v>1426.088700803848</v>
       </c>
       <c r="C41" t="n">
-        <v>1204.238717623145</v>
+        <v>1204.238717623144</v>
       </c>
       <c r="D41" t="n">
-        <v>993.0855527761022</v>
+        <v>993.0855527761012</v>
       </c>
       <c r="E41" t="n">
-        <v>754.4098339375657</v>
+        <v>754.4098339375651</v>
       </c>
       <c r="F41" t="n">
-        <v>490.536462907666</v>
+        <v>490.5364629076653</v>
       </c>
       <c r="G41" t="n">
         <v>220.9606665217257</v>
       </c>
       <c r="H41" t="n">
-        <v>53.94096893601661</v>
+        <v>53.94096893601659</v>
       </c>
       <c r="I41" t="n">
-        <v>53.94096893601661</v>
+        <v>53.94096893601659</v>
       </c>
       <c r="J41" t="n">
-        <v>275.8091558671467</v>
+        <v>275.8091558671466</v>
       </c>
       <c r="K41" t="n">
-        <v>729.0768589303111</v>
+        <v>729.076858930311</v>
       </c>
       <c r="L41" t="n">
-        <v>1168.213400353103</v>
+        <v>1001.41306165629</v>
       </c>
       <c r="M41" t="n">
-        <v>1423.657231927241</v>
+        <v>1256.856893230428</v>
       </c>
       <c r="N41" t="n">
-        <v>1687.848220133386</v>
+        <v>1521.047881436572</v>
       </c>
       <c r="O41" t="n">
-        <v>1923.981017474578</v>
+        <v>2134.172858227883</v>
       </c>
       <c r="P41" t="n">
-        <v>2409.594617110753</v>
+        <v>2619.786457864058</v>
       </c>
       <c r="Q41" t="n">
-        <v>2697.04844680083</v>
+        <v>2697.048446800829</v>
       </c>
       <c r="R41" t="n">
-        <v>2697.04844680083</v>
+        <v>2697.048446800829</v>
       </c>
       <c r="S41" t="n">
-        <v>2697.04844680083</v>
+        <v>2697.048446800829</v>
       </c>
       <c r="T41" t="n">
-        <v>2631.109718285716</v>
+        <v>2631.109718285714</v>
       </c>
       <c r="U41" t="n">
-        <v>2524.562504920008</v>
+        <v>2524.562504920007</v>
       </c>
       <c r="V41" t="n">
-        <v>2340.612151336145</v>
+        <v>2340.612151336144</v>
       </c>
       <c r="W41" t="n">
-        <v>2134.956029825738</v>
+        <v>2134.956029825737</v>
       </c>
       <c r="X41" t="n">
-        <v>1908.602805324366</v>
+        <v>1908.602805324365</v>
       </c>
       <c r="Y41" t="n">
-        <v>1665.576007108263</v>
+        <v>1665.576007108262</v>
       </c>
     </row>
     <row r="42">
@@ -7482,25 +7482,25 @@
         <v>191.3391358172531</v>
       </c>
       <c r="H42" t="n">
-        <v>92.48729593459854</v>
+        <v>92.48729593459852</v>
       </c>
       <c r="I42" t="n">
-        <v>53.94096893601661</v>
+        <v>53.94096893601659</v>
       </c>
       <c r="J42" t="n">
-        <v>192.3907614399509</v>
+        <v>67.5606364529461</v>
       </c>
       <c r="K42" t="n">
-        <v>555.6443519024861</v>
+        <v>168.9936422730285</v>
       </c>
       <c r="L42" t="n">
-        <v>802.12966827773</v>
+        <v>718.8373192141039</v>
       </c>
       <c r="M42" t="n">
-        <v>1034.702513344995</v>
+        <v>1386.356809797309</v>
       </c>
       <c r="N42" t="n">
-        <v>1287.839514494839</v>
+        <v>1639.493810947153</v>
       </c>
       <c r="O42" t="n">
         <v>1887.114317104853</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>352.489397456509</v>
+        <v>106.4334486588142</v>
       </c>
       <c r="C43" t="n">
-        <v>183.5532145286021</v>
+        <v>84.60979949061506</v>
       </c>
       <c r="D43" t="n">
-        <v>180.5491088759742</v>
+        <v>81.6056938379871</v>
       </c>
       <c r="E43" t="n">
-        <v>80.80513401530172</v>
+        <v>80.80513401530176</v>
       </c>
       <c r="F43" t="n">
-        <v>80.80513401530172</v>
+        <v>80.80513401530176</v>
       </c>
       <c r="G43" t="n">
-        <v>59.49000301458094</v>
+        <v>59.49000301458095</v>
       </c>
       <c r="H43" t="n">
-        <v>53.94096893601661</v>
+        <v>53.94096893601659</v>
       </c>
       <c r="I43" t="n">
-        <v>53.94096893601661</v>
+        <v>53.94096893601659</v>
       </c>
       <c r="J43" t="n">
-        <v>53.94096893601661</v>
+        <v>53.94096893601659</v>
       </c>
       <c r="K43" t="n">
         <v>175.39211710127</v>
       </c>
       <c r="L43" t="n">
-        <v>386.3342071889391</v>
+        <v>386.334207188939</v>
       </c>
       <c r="M43" t="n">
         <v>619.1321880174387</v>
@@ -7594,25 +7594,25 @@
         <v>1215.557587343994</v>
       </c>
       <c r="S43" t="n">
-        <v>1011.239925579203</v>
+        <v>1158.352459338911</v>
       </c>
       <c r="T43" t="n">
-        <v>933.4888509673523</v>
+        <v>1080.60138472706</v>
       </c>
       <c r="U43" t="n">
-        <v>791.4589817726047</v>
+        <v>938.5715155323123</v>
       </c>
       <c r="V43" t="n">
-        <v>683.8870273264256</v>
+        <v>683.8870273264255</v>
       </c>
       <c r="W43" t="n">
-        <v>541.5823910491728</v>
+        <v>442.6389760111858</v>
       </c>
       <c r="X43" t="n">
-        <v>460.7053739108632</v>
+        <v>361.7619588728762</v>
       </c>
       <c r="Y43" t="n">
-        <v>387.0253285270409</v>
+        <v>140.9693797293461</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1426.088700803849</v>
+        <v>1426.088700803848</v>
       </c>
       <c r="C44" t="n">
-        <v>1204.238717623145</v>
+        <v>1204.238717623144</v>
       </c>
       <c r="D44" t="n">
-        <v>993.0855527761025</v>
+        <v>993.0855527761014</v>
       </c>
       <c r="E44" t="n">
-        <v>754.4098339375664</v>
+        <v>754.4098339375651</v>
       </c>
       <c r="F44" t="n">
-        <v>490.5364629076666</v>
+        <v>490.5364629076653</v>
       </c>
       <c r="G44" t="n">
         <v>220.9606665217257</v>
       </c>
       <c r="H44" t="n">
-        <v>53.94096893601661</v>
+        <v>53.94096893601659</v>
       </c>
       <c r="I44" t="n">
-        <v>53.94096893601661</v>
+        <v>53.94096893601659</v>
       </c>
       <c r="J44" t="n">
         <v>108.4035068467936</v>
       </c>
       <c r="K44" t="n">
-        <v>240.767251464505</v>
+        <v>240.7672514645049</v>
       </c>
       <c r="L44" t="n">
         <v>855.3625453285966</v>
       </c>
       <c r="M44" t="n">
-        <v>1110.806376902735</v>
+        <v>1205.927849457629</v>
       </c>
       <c r="N44" t="n">
-        <v>1778.32586748594</v>
+        <v>1873.447340040834</v>
       </c>
       <c r="O44" t="n">
-        <v>2134.172858227884</v>
+        <v>2109.580137382027</v>
       </c>
       <c r="P44" t="n">
-        <v>2619.786457864059</v>
+        <v>2595.193737018202</v>
       </c>
       <c r="Q44" t="n">
-        <v>2697.04844680083</v>
+        <v>2672.455725954973</v>
       </c>
       <c r="R44" t="n">
-        <v>2697.04844680083</v>
+        <v>2697.048446800829</v>
       </c>
       <c r="S44" t="n">
-        <v>2697.04844680083</v>
+        <v>2697.048446800829</v>
       </c>
       <c r="T44" t="n">
-        <v>2631.109718285716</v>
+        <v>2631.109718285715</v>
       </c>
       <c r="U44" t="n">
-        <v>2524.562504920008</v>
+        <v>2524.562504920007</v>
       </c>
       <c r="V44" t="n">
-        <v>2340.612151336145</v>
+        <v>2340.612151336144</v>
       </c>
       <c r="W44" t="n">
-        <v>2134.956029825739</v>
+        <v>2134.956029825737</v>
       </c>
       <c r="X44" t="n">
-        <v>1908.602805324367</v>
+        <v>1908.602805324365</v>
       </c>
       <c r="Y44" t="n">
-        <v>1665.576007108263</v>
+        <v>1665.576007108262</v>
       </c>
     </row>
     <row r="45">
@@ -7719,31 +7719,31 @@
         <v>191.3391358172531</v>
       </c>
       <c r="H45" t="n">
-        <v>92.48729593459854</v>
+        <v>92.48729593459852</v>
       </c>
       <c r="I45" t="n">
-        <v>53.94096893601661</v>
+        <v>53.94096893601659</v>
       </c>
       <c r="J45" t="n">
-        <v>192.3907614399509</v>
+        <v>67.5606364529461</v>
       </c>
       <c r="K45" t="n">
-        <v>555.6443519024861</v>
+        <v>430.8142269154812</v>
       </c>
       <c r="L45" t="n">
-        <v>1105.488028843562</v>
+        <v>980.6579038565567</v>
       </c>
       <c r="M45" t="n">
-        <v>1338.060873910827</v>
+        <v>1213.230748923822</v>
       </c>
       <c r="N45" t="n">
-        <v>1885.739725437292</v>
+        <v>1880.750239507027</v>
       </c>
       <c r="O45" t="n">
-        <v>2095.090831963344</v>
+        <v>2090.101346033079</v>
       </c>
       <c r="P45" t="n">
-        <v>2559.058626380338</v>
+        <v>2351.082111521847</v>
       </c>
       <c r="Q45" t="n">
         <v>2608.534525615434</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>499.6019312162169</v>
+        <v>106.4334486588142</v>
       </c>
       <c r="C46" t="n">
-        <v>477.7782820480178</v>
+        <v>84.60979949061506</v>
       </c>
       <c r="D46" t="n">
-        <v>327.6616426356821</v>
+        <v>81.6056938379871</v>
       </c>
       <c r="E46" t="n">
-        <v>179.748549053289</v>
+        <v>80.80513401530176</v>
       </c>
       <c r="F46" t="n">
-        <v>179.748549053289</v>
+        <v>80.80513401530176</v>
       </c>
       <c r="G46" t="n">
-        <v>64.69654750984893</v>
+        <v>59.49000301458095</v>
       </c>
       <c r="H46" t="n">
-        <v>59.14751343128459</v>
+        <v>53.94096893601659</v>
       </c>
       <c r="I46" t="n">
-        <v>59.14751343128459</v>
+        <v>53.94096893601659</v>
       </c>
       <c r="J46" t="n">
-        <v>53.94096893601661</v>
+        <v>53.94096893601659</v>
       </c>
       <c r="K46" t="n">
         <v>175.39211710127</v>
       </c>
       <c r="L46" t="n">
-        <v>386.3342071889391</v>
+        <v>386.334207188939</v>
       </c>
       <c r="M46" t="n">
         <v>619.1321880174387</v>
@@ -7834,22 +7834,22 @@
         <v>1158.352459338911</v>
       </c>
       <c r="T46" t="n">
-        <v>1080.60138472706</v>
+        <v>933.4888509673522</v>
       </c>
       <c r="U46" t="n">
-        <v>938.5715155323126</v>
+        <v>644.3464480128968</v>
       </c>
       <c r="V46" t="n">
-        <v>830.9995610861334</v>
+        <v>536.7744935667176</v>
       </c>
       <c r="W46" t="n">
-        <v>688.6949248088806</v>
+        <v>295.526442251478</v>
       </c>
       <c r="X46" t="n">
-        <v>607.8179076705711</v>
+        <v>214.6494251131685</v>
       </c>
       <c r="Y46" t="n">
-        <v>534.1378622867488</v>
+        <v>140.9693797293461</v>
       </c>
     </row>
   </sheetData>
@@ -8693,25 +8693,25 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>380.4759295761911</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>325.5939698640776</v>
+        <v>4.817090497223887</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>345.1000650488705</v>
       </c>
       <c r="P11" t="n">
-        <v>202.8020871047457</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>40.87528770545097</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8769,25 +8769,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>207.178182198914</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>100.4126562586616</v>
       </c>
       <c r="O12" t="n">
-        <v>372.152277993458</v>
+        <v>372.1522779934577</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8930,10 +8930,10 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>65.19485677016701</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>325.5939698640776</v>
+        <v>203.3149681418701</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -8945,10 +8945,10 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>40.87528770545097</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9009,22 +9009,22 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>348.6959764366764</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>327.9241016057888</v>
+        <v>327.9241016057885</v>
       </c>
       <c r="O15" t="n">
-        <v>372.152277993458</v>
+        <v>372.1522779934577</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>59.09816053223508</v>
+        <v>36.95379166545196</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9161,31 +9161,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>380.4759295761909</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>325.5939698640775</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>262.9278658023663</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>8.864339765140102</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>40.87528770545097</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9240,13 +9240,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>100.412656258662</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>291.1644345943535</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9255,10 +9255,10 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>372.1522779934579</v>
+        <v>372.1522779934578</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -9398,31 +9398,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>25.77174297493025</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>54.20456790645488</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>325.5939698640775</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>316.7584581145763</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>40.87528770545092</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9477,28 +9477,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>348.6959764366762</v>
       </c>
       <c r="N21" t="n">
-        <v>327.9241016057886</v>
+        <v>50.8539390617652</v>
       </c>
       <c r="O21" t="n">
-        <v>197.0184093098533</v>
+        <v>372.1522779934578</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9635,13 +9635,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>150.3212571805663</v>
       </c>
       <c r="K23" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>193.5396326683956</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -9656,7 +9656,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9717,25 +9717,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>77.53564356473024</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>395.0519655754335</v>
+        <v>395.0519655754338</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>374.2800907445462</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>189.3608699099042</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9872,16 +9872,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>118.9433590305558</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
@@ -9893,7 +9893,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>130.3094155760046</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -9966,13 +9966,13 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>330.7537100895206</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>146.9686785486406</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10112,10 +10112,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
         <v>449.5135334928325</v>
@@ -10124,7 +10124,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>298.7946061788451</v>
+        <v>205.278804199559</v>
       </c>
       <c r="P29" t="n">
         <v>321.7987081714826</v>
@@ -10191,22 +10191,22 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>400.5860819495839</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>38.46664950854583</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -10355,22 +10355,22 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>330.6469251212266</v>
       </c>
       <c r="N32" t="n">
-        <v>174.8362576050696</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>40.87528770545092</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10425,16 +10425,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>306.2379334448673</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
         <v>479.3423743435536</v>
@@ -10443,10 +10443,10 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>317.1163994959668</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10583,31 +10583,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>393.7436690470707</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>328.0308657913915</v>
       </c>
       <c r="O35" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>40.87528770545092</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10668,13 +10668,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>39.71190700524659</v>
       </c>
       <c r="N36" t="n">
-        <v>87.43973284659629</v>
+        <v>418.5681711448092</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -10823,28 +10823,28 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>221.5716334396023</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>416.2380394030981</v>
       </c>
       <c r="N38" t="n">
-        <v>352.8719979589224</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>40.87528770545092</v>
+        <v>40.87528770545097</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,22 +10899,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>354.8686287214418</v>
       </c>
       <c r="N39" t="n">
-        <v>418.5681711448093</v>
+        <v>418.5681711448092</v>
       </c>
       <c r="O39" t="n">
-        <v>358.1746756451835</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -11063,7 +11063,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>240.4301514784306</v>
+        <v>71.94496087558883</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -11072,13 +11072,13 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>40.87528770545097</v>
@@ -11136,22 +11136,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>64.41775887332642</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>439.3400459756969</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>38.65595922388709</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
@@ -11303,13 +11303,13 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>96.08229550999397</v>
       </c>
       <c r="N44" t="n">
-        <v>407.4025276535971</v>
+        <v>407.4025276535968</v>
       </c>
       <c r="O44" t="n">
-        <v>120.9234276775259</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
@@ -11318,7 +11318,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>40.87528770545097</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,7 +11373,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11385,16 +11385,16 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>297.5170205824459</v>
+        <v>418.5681711448093</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>113.4253656821337</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23258,7 +23258,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>271.4379213983858</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23270,10 +23270,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>333.0902356170841</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>231.5596978048557</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23309,13 +23309,13 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>131.4895384249673</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>145.0842538303614</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>290.299889451362</v>
       </c>
       <c r="Y11" t="n">
-        <v>306.8067274289466</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23492,13 +23492,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>303.3026304363736</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>285.8416805439006</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>275.251830393576</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23507,13 +23507,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>333.0902356170841</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>134.0815225964894</v>
       </c>
       <c r="I14" t="n">
-        <v>23.81896975173335</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,25 +23543,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>66.21019719500373</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>171.691938427054</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>269.809757490306</v>
       </c>
       <c r="X14" t="n">
-        <v>144.8610917658049</v>
+        <v>290.299889451362</v>
       </c>
       <c r="Y14" t="n">
-        <v>306.8067274289466</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23729,13 +23729,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>11.00848663376771</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>179.8983226496898</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23789,7 +23789,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>168.889836015921</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23981,7 +23981,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>179.8983226496896</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -24032,7 +24032,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>179.8983226496891</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -25877,7 +25877,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>-5.38472676219475e-13</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>748690.9790044568</v>
+        <v>748690.9790044565</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>748690.9790044568</v>
+        <v>748690.9790044565</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>857265.4914792578</v>
+        <v>857265.4914792579</v>
       </c>
     </row>
     <row r="10">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>865187.0102576038</v>
+        <v>865187.0102576039</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>655421.0709736305</v>
+      </c>
+      <c r="C2" t="n">
         <v>655421.0709736306</v>
       </c>
-      <c r="C2" t="n">
-        <v>655421.0709736305</v>
-      </c>
       <c r="D2" t="n">
-        <v>655421.0709736304</v>
+        <v>655421.0709736308</v>
       </c>
       <c r="E2" t="n">
+        <v>573888.0994516779</v>
+      </c>
+      <c r="F2" t="n">
         <v>573888.0994516781</v>
       </c>
-      <c r="F2" t="n">
-        <v>573888.0994516775</v>
-      </c>
       <c r="G2" t="n">
-        <v>645377.4907050945</v>
+        <v>645377.4907050946</v>
       </c>
       <c r="H2" t="n">
         <v>645377.4907050944</v>
       </c>
       <c r="I2" t="n">
+        <v>656833.4158914268</v>
+      </c>
+      <c r="J2" t="n">
+        <v>656833.4158914261</v>
+      </c>
+      <c r="K2" t="n">
+        <v>656833.4158914256</v>
+      </c>
+      <c r="L2" t="n">
         <v>656833.4158914267</v>
       </c>
-      <c r="J2" t="n">
-        <v>656833.4158914256</v>
-      </c>
-      <c r="K2" t="n">
-        <v>656833.4158914261</v>
-      </c>
-      <c r="L2" t="n">
-        <v>656833.4158914265</v>
-      </c>
       <c r="M2" t="n">
-        <v>656833.415891427</v>
+        <v>656833.4158914266</v>
       </c>
       <c r="N2" t="n">
-        <v>656833.4158914261</v>
+        <v>656833.4158914259</v>
       </c>
       <c r="O2" t="n">
         <v>656833.4158914267</v>
       </c>
       <c r="P2" t="n">
-        <v>656833.4158914261</v>
+        <v>656833.4158914265</v>
       </c>
     </row>
     <row r="3">
@@ -26372,28 +26372,28 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>793631.672415043</v>
+        <v>793631.6724150429</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>63544.96898168554</v>
+        <v>63544.96898168555</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>12327.03098776745</v>
+        <v>12327.03098776757</v>
       </c>
       <c r="J3" t="n">
-        <v>75688.18005323119</v>
+        <v>75688.1800532311</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>63544.96898168555</v>
+        <v>63544.96898168558</v>
       </c>
       <c r="M3" t="n">
         <v>137355.3289379699</v>
@@ -26476,40 +26476,40 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>57243.92344591297</v>
+        <v>57243.92344591294</v>
       </c>
       <c r="F5" t="n">
-        <v>57243.92344591297</v>
+        <v>57243.92344591294</v>
       </c>
       <c r="G5" t="n">
-        <v>63921.62594256463</v>
+        <v>63921.62594256461</v>
       </c>
       <c r="H5" t="n">
-        <v>63921.62594256463</v>
+        <v>63921.62594256461</v>
       </c>
       <c r="I5" t="n">
         <v>66740.07008220107</v>
       </c>
       <c r="J5" t="n">
-        <v>77650.54597770232</v>
+        <v>77650.54597770231</v>
       </c>
       <c r="K5" t="n">
-        <v>77650.54597770231</v>
+        <v>77650.54597770229</v>
       </c>
       <c r="L5" t="n">
-        <v>77650.54597770232</v>
+        <v>77650.54597770229</v>
       </c>
       <c r="M5" t="n">
-        <v>68321.30794187219</v>
+        <v>68321.30794187218</v>
       </c>
       <c r="N5" t="n">
-        <v>68321.3079418722</v>
+        <v>68321.30794187218</v>
       </c>
       <c r="O5" t="n">
-        <v>68321.30794187219</v>
+        <v>68321.30794187218</v>
       </c>
       <c r="P5" t="n">
-        <v>68321.30794187219</v>
+        <v>68321.30794187218</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>180144.2209778102</v>
+        <v>180139.807399942</v>
       </c>
       <c r="C6" t="n">
-        <v>180144.22097781</v>
+        <v>180139.807399942</v>
       </c>
       <c r="D6" t="n">
-        <v>180144.2209778099</v>
+        <v>180139.8073999422</v>
       </c>
       <c r="E6" t="n">
-        <v>-431312.5686773727</v>
+        <v>-431571.772791247</v>
       </c>
       <c r="F6" t="n">
-        <v>362319.1037376697</v>
+        <v>362059.8996237961</v>
       </c>
       <c r="G6" t="n">
-        <v>312775.5931033125</v>
+        <v>312739.7933371054</v>
       </c>
       <c r="H6" t="n">
-        <v>376320.5620849981</v>
+        <v>376284.7623187907</v>
       </c>
       <c r="I6" t="n">
-        <v>366874.1067862309</v>
+        <v>366874.1067862308</v>
       </c>
       <c r="J6" t="n">
-        <v>302639.9554194055</v>
+        <v>302639.9554194062</v>
       </c>
       <c r="K6" t="n">
-        <v>378328.1354726373</v>
+        <v>378328.1354726367</v>
       </c>
       <c r="L6" t="n">
-        <v>314783.166490952</v>
+        <v>314783.1664909522</v>
       </c>
       <c r="M6" t="n">
-        <v>242164.1302448442</v>
+        <v>242164.1302448439</v>
       </c>
       <c r="N6" t="n">
-        <v>379519.4591828132</v>
+        <v>379519.4591828131</v>
       </c>
       <c r="O6" t="n">
-        <v>379519.4591828138</v>
+        <v>379519.4591828139</v>
       </c>
       <c r="P6" t="n">
-        <v>379519.4591828132</v>
+        <v>379519.4591828136</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="F2" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="G2" t="n">
         <v>158.8624224542139</v>
@@ -26710,10 +26710,10 @@
         <v>79.43121122710694</v>
       </c>
       <c r="K2" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="L2" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="M2" t="n">
         <v>145.6414084221107</v>
@@ -26750,28 +26750,28 @@
         <v>691.8460543973006</v>
       </c>
       <c r="G3" t="n">
-        <v>691.8460543973008</v>
+        <v>691.8460543973006</v>
       </c>
       <c r="H3" t="n">
-        <v>691.8460543973008</v>
+        <v>691.8460543973006</v>
       </c>
       <c r="I3" t="n">
-        <v>691.8460543973008</v>
+        <v>691.8460543973006</v>
       </c>
       <c r="J3" t="n">
-        <v>691.8460543973008</v>
+        <v>691.8460543973006</v>
       </c>
       <c r="K3" t="n">
-        <v>691.8460543973008</v>
+        <v>691.8460543973006</v>
       </c>
       <c r="L3" t="n">
-        <v>691.8460543973008</v>
+        <v>691.8460543973006</v>
       </c>
       <c r="M3" t="n">
-        <v>691.8460543973008</v>
+        <v>691.8460543973006</v>
       </c>
       <c r="N3" t="n">
-        <v>691.8460543973008</v>
+        <v>691.8460543973006</v>
       </c>
       <c r="O3" t="n">
         <v>691.8460543973006</v>
@@ -26796,40 +26796,40 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>583.6180421611868</v>
+        <v>583.6180421611865</v>
       </c>
       <c r="F4" t="n">
-        <v>583.6180421611868</v>
+        <v>583.6180421611865</v>
       </c>
       <c r="G4" t="n">
-        <v>583.6180421611868</v>
+        <v>583.6180421611866</v>
       </c>
       <c r="H4" t="n">
-        <v>583.6180421611868</v>
+        <v>583.6180421611866</v>
       </c>
       <c r="I4" t="n">
-        <v>629.974031299944</v>
+        <v>629.9740312999443</v>
       </c>
       <c r="J4" t="n">
-        <v>919.2532811708801</v>
+        <v>919.25328117088</v>
       </c>
       <c r="K4" t="n">
-        <v>919.2532811708801</v>
+        <v>919.2532811708797</v>
       </c>
       <c r="L4" t="n">
-        <v>919.2532811708801</v>
+        <v>919.2532811708797</v>
       </c>
       <c r="M4" t="n">
         <v>674.2621117002074</v>
       </c>
       <c r="N4" t="n">
-        <v>674.2621117002076</v>
+        <v>674.2621117002074</v>
       </c>
       <c r="O4" t="n">
-        <v>674.2621117002076</v>
+        <v>674.2621117002074</v>
       </c>
       <c r="P4" t="n">
-        <v>674.2621117002076</v>
+        <v>674.2621117002074</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,10 +26935,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="M2" t="n">
-        <v>66.21019719500377</v>
+        <v>66.21019719500372</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>583.6180421611868</v>
+        <v>583.6180421611865</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,10 +27030,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>46.3559891387572</v>
+        <v>46.35598913875765</v>
       </c>
       <c r="J4" t="n">
-        <v>289.279249870936</v>
+        <v>289.2792498709357</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>583.6180421611868</v>
+        <v>583.6180421611865</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="C11" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="D11" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="E11" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="F11" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="G11" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="H11" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="I11" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="T11" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="U11" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="V11" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="W11" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="X11" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="Y11" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710697</v>
       </c>
     </row>
     <row r="12">
@@ -28166,22 +28166,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>79.43121122710699</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>67.11943691068024</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>67.11943691067891</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -28229,7 +28229,7 @@
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>79.43121122710699</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="C13" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="D13" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="E13" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="F13" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="G13" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="H13" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="I13" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="J13" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="K13" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="L13" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="M13" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="N13" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="O13" t="n">
-        <v>79.43121122710636</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="P13" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="Q13" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="R13" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="S13" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="T13" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="U13" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="V13" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="W13" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="X13" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="Y13" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710697</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="C14" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="D14" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="E14" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="F14" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="G14" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="H14" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="I14" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="T14" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="U14" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="V14" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="W14" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="X14" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="Y14" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710697</v>
       </c>
     </row>
     <row r="15">
@@ -28403,7 +28403,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>79.43121122710699</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -28412,19 +28412,19 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>18.08533776941334</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>67.11943691068024</v>
       </c>
       <c r="G15" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>38.16086372859611</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -28451,7 +28451,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>7.763751642754542</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -28466,7 +28466,7 @@
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>79.43121122710699</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="C16" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="D16" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="E16" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="F16" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="G16" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="H16" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="I16" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="J16" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="K16" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="L16" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="M16" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="N16" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="O16" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="P16" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="Q16" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710626</v>
       </c>
       <c r="R16" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="S16" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="T16" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="U16" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="V16" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="W16" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="X16" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="Y16" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710697</v>
       </c>
     </row>
     <row r="17">
@@ -28655,13 +28655,13 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>135.8553954612995</v>
       </c>
       <c r="H18" t="n">
-        <v>97.863321483828</v>
+        <v>90.12646390359426</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>38.16086372859611</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -28697,7 +28697,7 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>7.416979155446853</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -28706,7 +28706,7 @@
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>158.8624224542139</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -28719,7 +28719,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>158.8624224542139</v>
       </c>
       <c r="C19" t="n">
         <v>158.8624224542139</v>
@@ -28734,7 +28734,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>158.8624224542139</v>
       </c>
       <c r="H19" t="n">
         <v>151.1349521598894</v>
@@ -28743,7 +28743,7 @@
         <v>117.9320036494506</v>
       </c>
       <c r="J19" t="n">
-        <v>5.154479050315274</v>
+        <v>5.154479050315302</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28767,7 +28767,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>121.1971522780048</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>158.8624224542139</v>
@@ -28779,10 +28779,10 @@
         <v>158.8624224542139</v>
       </c>
       <c r="V19" t="n">
-        <v>104.742589205656</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>158.8624224542139</v>
+        <v>67.07731902944735</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -28880,13 +28880,13 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>158.8624224542139</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>8.634321154260874</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -28895,7 +28895,7 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>97.863321483828</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -28937,7 +28937,7 @@
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>105.2803006392752</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -28962,10 +28962,10 @@
         <v>158.8624224542139</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>41.1367611572463</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -28977,10 +28977,10 @@
         <v>151.1349521598894</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>117.9320036494506</v>
       </c>
       <c r="J22" t="n">
-        <v>5.154479050315274</v>
+        <v>5.154479050315302</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -29010,22 +29010,22 @@
         <v>158.8624224542139</v>
       </c>
       <c r="T22" t="n">
-        <v>158.8624224542139</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>158.8624224542139</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>158.8624224542139</v>
       </c>
       <c r="W22" t="n">
+        <v>104.7425892056566</v>
+      </c>
+      <c r="X22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y22" t="n">
         <v>158.8624224542139</v>
-      </c>
-      <c r="X22" t="n">
-        <v>158.8624224542139</v>
-      </c>
-      <c r="Y22" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -29129,10 +29129,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>84.24440044379978</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>84.24440044379892</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -29193,7 +29193,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>158.8624224542139</v>
       </c>
       <c r="C25" t="n">
         <v>158.8624224542139</v>
@@ -29217,7 +29217,7 @@
         <v>117.9320036494506</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>5.154479050315302</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -29241,28 +29241,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>121.1971522780048</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>158.8624224542139</v>
       </c>
       <c r="T25" t="n">
-        <v>158.8624224542139</v>
+        <v>56.83036959344557</v>
       </c>
       <c r="U25" t="n">
-        <v>158.8624224542139</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>158.8624224542139</v>
       </c>
       <c r="W25" t="n">
-        <v>99.65011881996944</v>
+        <v>158.8624224542139</v>
       </c>
       <c r="X25" t="n">
         <v>158.8624224542139</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>158.8624224542139</v>
       </c>
     </row>
     <row r="26">
@@ -29457,7 +29457,7 @@
         <v>79.43121122710694</v>
       </c>
       <c r="K28" t="n">
-        <v>79.43121122710718</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="L28" t="n">
         <v>79.43121122710694</v>
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="C29" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="D29" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="E29" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="F29" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="G29" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="H29" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="I29" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="T29" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="U29" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="V29" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="W29" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="X29" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="Y29" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710694</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="C31" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="D31" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="E31" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="F31" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="G31" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="H31" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="I31" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="J31" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="K31" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="L31" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="M31" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="N31" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710716</v>
       </c>
       <c r="O31" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="P31" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="Q31" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="R31" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="S31" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="T31" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="U31" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="V31" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="W31" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="X31" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="Y31" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710694</v>
       </c>
     </row>
     <row r="32">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="C32" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710738</v>
       </c>
       <c r="D32" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="E32" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="F32" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="G32" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="H32" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="I32" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>79.43121122710673</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="T32" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="U32" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="V32" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="W32" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="X32" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="Y32" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710697</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="C34" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="D34" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="E34" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="F34" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="G34" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="H34" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="I34" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="J34" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="K34" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="L34" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="M34" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="N34" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="O34" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="P34" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="Q34" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="R34" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="S34" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="T34" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="U34" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="V34" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="W34" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="X34" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="Y34" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710697</v>
       </c>
     </row>
     <row r="35">
@@ -30165,7 +30165,7 @@
         <v>117.9320036494506</v>
       </c>
       <c r="J37" t="n">
-        <v>5.154479050315274</v>
+        <v>5.154479050315302</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -30189,7 +30189,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>23.24317139039735</v>
+        <v>121.1971522780048</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -30198,7 +30198,7 @@
         <v>145.6414084221107</v>
       </c>
       <c r="U37" t="n">
-        <v>145.6414084221107</v>
+        <v>47.68742753450371</v>
       </c>
       <c r="V37" t="n">
         <v>145.6414084221107</v>
@@ -30384,10 +30384,10 @@
         <v>145.6414084221107</v>
       </c>
       <c r="D40" t="n">
-        <v>47.6874275345034</v>
+        <v>145.6414084221107</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>145.6414084221107</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -30402,7 +30402,7 @@
         <v>117.9320036494506</v>
       </c>
       <c r="J40" t="n">
-        <v>5.154479050315274</v>
+        <v>5.154479050315302</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -30429,13 +30429,13 @@
         <v>121.1971522780048</v>
       </c>
       <c r="S40" t="n">
-        <v>145.6414084221107</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>145.6414084221107</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>47.68742753450383</v>
       </c>
       <c r="V40" t="n">
         <v>145.6414084221107</v>
@@ -30618,13 +30618,13 @@
         <v>145.6414084221107</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>145.6414084221107</v>
       </c>
       <c r="D43" t="n">
         <v>145.6414084221107</v>
       </c>
       <c r="E43" t="n">
-        <v>47.68742753450341</v>
+        <v>145.6414084221107</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -30666,7 +30666,7 @@
         <v>121.1971522780048</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>145.6414084221107</v>
       </c>
       <c r="T43" t="n">
         <v>145.6414084221107</v>
@@ -30675,16 +30675,16 @@
         <v>145.6414084221107</v>
       </c>
       <c r="V43" t="n">
-        <v>145.6414084221107</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>145.6414084221107</v>
+        <v>47.68742753450371</v>
       </c>
       <c r="X43" t="n">
         <v>145.6414084221107</v>
       </c>
       <c r="Y43" t="n">
-        <v>145.6414084221107</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -30858,16 +30858,16 @@
         <v>145.6414084221107</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>145.6414084221107</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>145.6414084221107</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>52.84190658481859</v>
+        <v>145.6414084221107</v>
       </c>
       <c r="H46" t="n">
         <v>145.6414084221107</v>
@@ -30876,7 +30876,7 @@
         <v>117.9320036494506</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>5.154479050315302</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -30906,16 +30906,16 @@
         <v>145.6414084221107</v>
       </c>
       <c r="T46" t="n">
-        <v>145.6414084221107</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>145.6414084221107</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>145.6414084221107</v>
       </c>
       <c r="W46" t="n">
-        <v>145.6414084221107</v>
+        <v>47.68742753450383</v>
       </c>
       <c r="X46" t="n">
         <v>145.6414084221107</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>2.781290670943921</v>
+        <v>2.78129067094392</v>
       </c>
       <c r="H17" t="n">
-        <v>28.48389308380444</v>
+        <v>28.48389308380442</v>
       </c>
       <c r="I17" t="n">
         <v>107.2257085915656</v>
       </c>
       <c r="J17" t="n">
-        <v>236.0585690830268</v>
+        <v>236.0585690830267</v>
       </c>
       <c r="K17" t="n">
-        <v>353.790603184083</v>
+        <v>353.7906031840829</v>
       </c>
       <c r="L17" t="n">
-        <v>438.9085275549832</v>
+        <v>438.908527554983</v>
       </c>
       <c r="M17" t="n">
-        <v>488.370305524382</v>
+        <v>488.3703055243819</v>
       </c>
       <c r="N17" t="n">
-        <v>496.2726476432015</v>
+        <v>496.2726476432014</v>
       </c>
       <c r="O17" t="n">
-        <v>468.6161885340029</v>
+        <v>468.6161885340027</v>
       </c>
       <c r="P17" t="n">
-        <v>399.9530750950748</v>
+        <v>399.9530750950747</v>
       </c>
       <c r="Q17" t="n">
-        <v>300.3481029418955</v>
+        <v>300.3481029418954</v>
       </c>
       <c r="R17" t="n">
         <v>174.7102501086812</v>
       </c>
       <c r="S17" t="n">
-        <v>63.37866116413466</v>
+        <v>63.37866116413463</v>
       </c>
       <c r="T17" t="n">
         <v>12.17509991205702</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2225032536755136</v>
+        <v>0.2225032536755135</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32306,46 +32306,46 @@
         <v>1.488121701911175</v>
       </c>
       <c r="H18" t="n">
-        <v>14.37212275266846</v>
+        <v>14.37212275266845</v>
       </c>
       <c r="I18" t="n">
-        <v>51.23576912281898</v>
+        <v>51.23576912281897</v>
       </c>
       <c r="J18" t="n">
-        <v>140.5948665827572</v>
+        <v>140.5948665827571</v>
       </c>
       <c r="K18" t="n">
-        <v>240.2990206108059</v>
+        <v>240.2990206108058</v>
       </c>
       <c r="L18" t="n">
-        <v>323.1116879522489</v>
+        <v>323.1116879522488</v>
       </c>
       <c r="M18" t="n">
-        <v>377.0560996465289</v>
+        <v>377.0560996465288</v>
       </c>
       <c r="N18" t="n">
-        <v>387.0356526387316</v>
+        <v>387.0356526387314</v>
       </c>
       <c r="O18" t="n">
-        <v>354.0620086121734</v>
+        <v>354.0620086121733</v>
       </c>
       <c r="P18" t="n">
         <v>284.1659765693366</v>
       </c>
       <c r="Q18" t="n">
-        <v>189.9574298790476</v>
+        <v>189.9574298790475</v>
       </c>
       <c r="R18" t="n">
-        <v>92.39408250988862</v>
+        <v>92.39408250988859</v>
       </c>
       <c r="S18" t="n">
         <v>27.64120792804308</v>
       </c>
       <c r="T18" t="n">
-        <v>5.9981747546332</v>
+        <v>5.998174754633198</v>
       </c>
       <c r="U18" t="n">
-        <v>0.09790274354678789</v>
+        <v>0.09790274354678787</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.247591245634477</v>
+        <v>1.247591245634476</v>
       </c>
       <c r="H19" t="n">
         <v>11.09222034755017</v>
       </c>
       <c r="I19" t="n">
-        <v>37.51847127780773</v>
+        <v>37.51847127780772</v>
       </c>
       <c r="J19" t="n">
-        <v>88.2047010663575</v>
+        <v>88.20470106635747</v>
       </c>
       <c r="K19" t="n">
         <v>144.9474192655328</v>
       </c>
       <c r="L19" t="n">
-        <v>185.4827930100567</v>
+        <v>185.4827930100566</v>
       </c>
       <c r="M19" t="n">
         <v>195.5655986225025</v>
       </c>
       <c r="N19" t="n">
-        <v>190.9154857978651</v>
+        <v>190.915485797865</v>
       </c>
       <c r="O19" t="n">
         <v>176.341351701135</v>
       </c>
       <c r="P19" t="n">
-        <v>150.8904902901916</v>
+        <v>150.8904902901915</v>
       </c>
       <c r="Q19" t="n">
         <v>104.4687542139924</v>
       </c>
       <c r="R19" t="n">
-        <v>56.09623909916473</v>
+        <v>56.09623909916471</v>
       </c>
       <c r="S19" t="n">
-        <v>21.74211288982992</v>
+        <v>21.74211288982991</v>
       </c>
       <c r="T19" t="n">
-        <v>5.330617140438218</v>
+        <v>5.330617140438216</v>
       </c>
       <c r="U19" t="n">
-        <v>0.06805043158006245</v>
+        <v>0.06805043158006242</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>2.781290670943921</v>
+        <v>2.78129067094392</v>
       </c>
       <c r="H20" t="n">
-        <v>28.48389308380444</v>
+        <v>28.48389308380442</v>
       </c>
       <c r="I20" t="n">
         <v>107.2257085915656</v>
       </c>
       <c r="J20" t="n">
-        <v>236.0585690830268</v>
+        <v>236.0585690830267</v>
       </c>
       <c r="K20" t="n">
-        <v>353.790603184083</v>
+        <v>353.7906031840829</v>
       </c>
       <c r="L20" t="n">
-        <v>438.9085275549832</v>
+        <v>438.908527554983</v>
       </c>
       <c r="M20" t="n">
-        <v>488.370305524382</v>
+        <v>488.3703055243819</v>
       </c>
       <c r="N20" t="n">
-        <v>496.2726476432015</v>
+        <v>496.2726476432014</v>
       </c>
       <c r="O20" t="n">
-        <v>468.6161885340029</v>
+        <v>468.6161885340027</v>
       </c>
       <c r="P20" t="n">
-        <v>399.9530750950748</v>
+        <v>399.9530750950747</v>
       </c>
       <c r="Q20" t="n">
-        <v>300.3481029418955</v>
+        <v>300.3481029418954</v>
       </c>
       <c r="R20" t="n">
         <v>174.7102501086812</v>
       </c>
       <c r="S20" t="n">
-        <v>63.37866116413466</v>
+        <v>63.37866116413463</v>
       </c>
       <c r="T20" t="n">
         <v>12.17509991205702</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2225032536755136</v>
+        <v>0.2225032536755135</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32543,46 +32543,46 @@
         <v>1.488121701911175</v>
       </c>
       <c r="H21" t="n">
-        <v>14.37212275266846</v>
+        <v>14.37212275266845</v>
       </c>
       <c r="I21" t="n">
-        <v>51.23576912281898</v>
+        <v>51.23576912281897</v>
       </c>
       <c r="J21" t="n">
-        <v>140.5948665827572</v>
+        <v>140.5948665827571</v>
       </c>
       <c r="K21" t="n">
-        <v>240.2990206108059</v>
+        <v>240.2990206108058</v>
       </c>
       <c r="L21" t="n">
-        <v>323.1116879522489</v>
+        <v>323.1116879522488</v>
       </c>
       <c r="M21" t="n">
-        <v>377.0560996465289</v>
+        <v>377.0560996465288</v>
       </c>
       <c r="N21" t="n">
-        <v>387.0356526387316</v>
+        <v>387.0356526387314</v>
       </c>
       <c r="O21" t="n">
-        <v>354.0620086121734</v>
+        <v>354.0620086121733</v>
       </c>
       <c r="P21" t="n">
         <v>284.1659765693366</v>
       </c>
       <c r="Q21" t="n">
-        <v>189.9574298790476</v>
+        <v>189.9574298790475</v>
       </c>
       <c r="R21" t="n">
-        <v>92.39408250988862</v>
+        <v>92.39408250988859</v>
       </c>
       <c r="S21" t="n">
         <v>27.64120792804308</v>
       </c>
       <c r="T21" t="n">
-        <v>5.9981747546332</v>
+        <v>5.998174754633198</v>
       </c>
       <c r="U21" t="n">
-        <v>0.09790274354678789</v>
+        <v>0.09790274354678787</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.247591245634477</v>
+        <v>1.247591245634476</v>
       </c>
       <c r="H22" t="n">
         <v>11.09222034755017</v>
       </c>
       <c r="I22" t="n">
-        <v>37.51847127780773</v>
+        <v>37.51847127780772</v>
       </c>
       <c r="J22" t="n">
-        <v>88.2047010663575</v>
+        <v>88.20470106635747</v>
       </c>
       <c r="K22" t="n">
         <v>144.9474192655328</v>
       </c>
       <c r="L22" t="n">
-        <v>185.4827930100567</v>
+        <v>185.4827930100566</v>
       </c>
       <c r="M22" t="n">
         <v>195.5655986225025</v>
       </c>
       <c r="N22" t="n">
-        <v>190.9154857978651</v>
+        <v>190.915485797865</v>
       </c>
       <c r="O22" t="n">
         <v>176.341351701135</v>
       </c>
       <c r="P22" t="n">
-        <v>150.8904902901916</v>
+        <v>150.8904902901915</v>
       </c>
       <c r="Q22" t="n">
         <v>104.4687542139924</v>
       </c>
       <c r="R22" t="n">
-        <v>56.09623909916473</v>
+        <v>56.09623909916471</v>
       </c>
       <c r="S22" t="n">
-        <v>21.74211288982992</v>
+        <v>21.74211288982991</v>
       </c>
       <c r="T22" t="n">
-        <v>5.330617140438218</v>
+        <v>5.330617140438216</v>
       </c>
       <c r="U22" t="n">
-        <v>0.06805043158006245</v>
+        <v>0.06805043158006242</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>2.781290670943921</v>
+        <v>2.78129067094392</v>
       </c>
       <c r="H23" t="n">
-        <v>28.48389308380444</v>
+        <v>28.48389308380442</v>
       </c>
       <c r="I23" t="n">
         <v>107.2257085915656</v>
       </c>
       <c r="J23" t="n">
-        <v>236.0585690830268</v>
+        <v>236.0585690830267</v>
       </c>
       <c r="K23" t="n">
-        <v>353.790603184083</v>
+        <v>353.7906031840829</v>
       </c>
       <c r="L23" t="n">
-        <v>438.9085275549832</v>
+        <v>438.908527554983</v>
       </c>
       <c r="M23" t="n">
-        <v>488.370305524382</v>
+        <v>488.3703055243819</v>
       </c>
       <c r="N23" t="n">
-        <v>496.2726476432015</v>
+        <v>496.2726476432014</v>
       </c>
       <c r="O23" t="n">
-        <v>468.6161885340029</v>
+        <v>468.6161885340027</v>
       </c>
       <c r="P23" t="n">
-        <v>399.9530750950748</v>
+        <v>399.9530750950747</v>
       </c>
       <c r="Q23" t="n">
-        <v>300.3481029418955</v>
+        <v>300.3481029418954</v>
       </c>
       <c r="R23" t="n">
         <v>174.7102501086812</v>
       </c>
       <c r="S23" t="n">
-        <v>63.37866116413466</v>
+        <v>63.37866116413463</v>
       </c>
       <c r="T23" t="n">
         <v>12.17509991205702</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2225032536755136</v>
+        <v>0.2225032536755135</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32780,46 +32780,46 @@
         <v>1.488121701911175</v>
       </c>
       <c r="H24" t="n">
-        <v>14.37212275266846</v>
+        <v>14.37212275266845</v>
       </c>
       <c r="I24" t="n">
-        <v>51.23576912281898</v>
+        <v>51.23576912281897</v>
       </c>
       <c r="J24" t="n">
-        <v>140.5948665827572</v>
+        <v>140.5948665827571</v>
       </c>
       <c r="K24" t="n">
-        <v>240.2990206108059</v>
+        <v>240.2990206108058</v>
       </c>
       <c r="L24" t="n">
-        <v>323.1116879522489</v>
+        <v>323.1116879522488</v>
       </c>
       <c r="M24" t="n">
-        <v>377.0560996465289</v>
+        <v>377.0560996465288</v>
       </c>
       <c r="N24" t="n">
-        <v>387.0356526387316</v>
+        <v>387.0356526387314</v>
       </c>
       <c r="O24" t="n">
-        <v>354.0620086121734</v>
+        <v>354.0620086121733</v>
       </c>
       <c r="P24" t="n">
         <v>284.1659765693366</v>
       </c>
       <c r="Q24" t="n">
-        <v>189.9574298790476</v>
+        <v>189.9574298790475</v>
       </c>
       <c r="R24" t="n">
-        <v>92.39408250988862</v>
+        <v>92.39408250988859</v>
       </c>
       <c r="S24" t="n">
         <v>27.64120792804308</v>
       </c>
       <c r="T24" t="n">
-        <v>5.9981747546332</v>
+        <v>5.998174754633198</v>
       </c>
       <c r="U24" t="n">
-        <v>0.09790274354678789</v>
+        <v>0.09790274354678787</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.247591245634477</v>
+        <v>1.247591245634476</v>
       </c>
       <c r="H25" t="n">
         <v>11.09222034755017</v>
       </c>
       <c r="I25" t="n">
-        <v>37.51847127780773</v>
+        <v>37.51847127780772</v>
       </c>
       <c r="J25" t="n">
-        <v>88.2047010663575</v>
+        <v>88.20470106635747</v>
       </c>
       <c r="K25" t="n">
         <v>144.9474192655328</v>
       </c>
       <c r="L25" t="n">
-        <v>185.4827930100567</v>
+        <v>185.4827930100566</v>
       </c>
       <c r="M25" t="n">
         <v>195.5655986225025</v>
       </c>
       <c r="N25" t="n">
-        <v>190.9154857978651</v>
+        <v>190.915485797865</v>
       </c>
       <c r="O25" t="n">
         <v>176.341351701135</v>
       </c>
       <c r="P25" t="n">
-        <v>150.8904902901916</v>
+        <v>150.8904902901915</v>
       </c>
       <c r="Q25" t="n">
         <v>104.4687542139924</v>
       </c>
       <c r="R25" t="n">
-        <v>56.09623909916473</v>
+        <v>56.09623909916471</v>
       </c>
       <c r="S25" t="n">
-        <v>21.74211288982992</v>
+        <v>21.74211288982991</v>
       </c>
       <c r="T25" t="n">
-        <v>5.330617140438218</v>
+        <v>5.330617140438216</v>
       </c>
       <c r="U25" t="n">
-        <v>0.06805043158006245</v>
+        <v>0.06805043158006242</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>2.781290670943921</v>
+        <v>2.78129067094392</v>
       </c>
       <c r="H26" t="n">
-        <v>28.48389308380444</v>
+        <v>28.48389308380442</v>
       </c>
       <c r="I26" t="n">
         <v>107.2257085915656</v>
       </c>
       <c r="J26" t="n">
-        <v>236.0585690830268</v>
+        <v>236.0585690830267</v>
       </c>
       <c r="K26" t="n">
-        <v>353.790603184083</v>
+        <v>353.7906031840829</v>
       </c>
       <c r="L26" t="n">
-        <v>438.9085275549832</v>
+        <v>438.908527554983</v>
       </c>
       <c r="M26" t="n">
-        <v>488.370305524382</v>
+        <v>488.3703055243819</v>
       </c>
       <c r="N26" t="n">
-        <v>496.2726476432015</v>
+        <v>496.2726476432014</v>
       </c>
       <c r="O26" t="n">
-        <v>468.6161885340029</v>
+        <v>468.6161885340027</v>
       </c>
       <c r="P26" t="n">
-        <v>399.9530750950748</v>
+        <v>399.9530750950747</v>
       </c>
       <c r="Q26" t="n">
-        <v>300.3481029418955</v>
+        <v>300.3481029418954</v>
       </c>
       <c r="R26" t="n">
         <v>174.7102501086812</v>
       </c>
       <c r="S26" t="n">
-        <v>63.37866116413466</v>
+        <v>63.37866116413463</v>
       </c>
       <c r="T26" t="n">
         <v>12.17509991205702</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2225032536755136</v>
+        <v>0.2225032536755135</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33017,46 +33017,46 @@
         <v>1.488121701911175</v>
       </c>
       <c r="H27" t="n">
-        <v>14.37212275266846</v>
+        <v>14.37212275266845</v>
       </c>
       <c r="I27" t="n">
-        <v>51.23576912281898</v>
+        <v>51.23576912281897</v>
       </c>
       <c r="J27" t="n">
-        <v>140.5948665827572</v>
+        <v>140.5948665827571</v>
       </c>
       <c r="K27" t="n">
-        <v>240.2990206108059</v>
+        <v>240.2990206108058</v>
       </c>
       <c r="L27" t="n">
-        <v>323.1116879522489</v>
+        <v>323.1116879522488</v>
       </c>
       <c r="M27" t="n">
-        <v>377.0560996465289</v>
+        <v>377.0560996465288</v>
       </c>
       <c r="N27" t="n">
-        <v>387.0356526387316</v>
+        <v>387.0356526387314</v>
       </c>
       <c r="O27" t="n">
-        <v>354.0620086121734</v>
+        <v>354.0620086121733</v>
       </c>
       <c r="P27" t="n">
         <v>284.1659765693366</v>
       </c>
       <c r="Q27" t="n">
-        <v>189.9574298790476</v>
+        <v>189.9574298790475</v>
       </c>
       <c r="R27" t="n">
-        <v>92.39408250988862</v>
+        <v>92.39408250988859</v>
       </c>
       <c r="S27" t="n">
         <v>27.64120792804308</v>
       </c>
       <c r="T27" t="n">
-        <v>5.9981747546332</v>
+        <v>5.998174754633198</v>
       </c>
       <c r="U27" t="n">
-        <v>0.09790274354678789</v>
+        <v>0.09790274354678787</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.247591245634477</v>
+        <v>1.247591245634476</v>
       </c>
       <c r="H28" t="n">
         <v>11.09222034755017</v>
       </c>
       <c r="I28" t="n">
-        <v>37.51847127780773</v>
+        <v>37.51847127780772</v>
       </c>
       <c r="J28" t="n">
-        <v>88.2047010663575</v>
+        <v>88.20470106635747</v>
       </c>
       <c r="K28" t="n">
         <v>144.9474192655328</v>
       </c>
       <c r="L28" t="n">
-        <v>185.4827930100567</v>
+        <v>185.4827930100566</v>
       </c>
       <c r="M28" t="n">
         <v>195.5655986225025</v>
       </c>
       <c r="N28" t="n">
-        <v>190.9154857978651</v>
+        <v>190.915485797865</v>
       </c>
       <c r="O28" t="n">
         <v>176.341351701135</v>
       </c>
       <c r="P28" t="n">
-        <v>150.8904902901916</v>
+        <v>150.8904902901915</v>
       </c>
       <c r="Q28" t="n">
         <v>104.4687542139924</v>
       </c>
       <c r="R28" t="n">
-        <v>56.09623909916473</v>
+        <v>56.09623909916471</v>
       </c>
       <c r="S28" t="n">
-        <v>21.74211288982992</v>
+        <v>21.74211288982991</v>
       </c>
       <c r="T28" t="n">
-        <v>5.330617140438218</v>
+        <v>5.330617140438216</v>
       </c>
       <c r="U28" t="n">
-        <v>0.06805043158006245</v>
+        <v>0.06805043158006242</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>2.781290670943921</v>
+        <v>2.78129067094392</v>
       </c>
       <c r="H29" t="n">
-        <v>28.48389308380444</v>
+        <v>28.48389308380442</v>
       </c>
       <c r="I29" t="n">
         <v>107.2257085915656</v>
       </c>
       <c r="J29" t="n">
-        <v>236.0585690830268</v>
+        <v>236.0585690830267</v>
       </c>
       <c r="K29" t="n">
-        <v>353.790603184083</v>
+        <v>353.7906031840829</v>
       </c>
       <c r="L29" t="n">
-        <v>438.9085275549832</v>
+        <v>438.908527554983</v>
       </c>
       <c r="M29" t="n">
-        <v>488.370305524382</v>
+        <v>488.3703055243819</v>
       </c>
       <c r="N29" t="n">
-        <v>496.2726476432015</v>
+        <v>496.2726476432014</v>
       </c>
       <c r="O29" t="n">
-        <v>468.6161885340029</v>
+        <v>468.6161885340027</v>
       </c>
       <c r="P29" t="n">
-        <v>399.9530750950748</v>
+        <v>399.9530750950747</v>
       </c>
       <c r="Q29" t="n">
-        <v>300.3481029418955</v>
+        <v>300.3481029418954</v>
       </c>
       <c r="R29" t="n">
         <v>174.7102501086812</v>
       </c>
       <c r="S29" t="n">
-        <v>63.37866116413466</v>
+        <v>63.37866116413463</v>
       </c>
       <c r="T29" t="n">
         <v>12.17509991205702</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2225032536755136</v>
+        <v>0.2225032536755135</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33254,46 +33254,46 @@
         <v>1.488121701911175</v>
       </c>
       <c r="H30" t="n">
-        <v>14.37212275266846</v>
+        <v>14.37212275266845</v>
       </c>
       <c r="I30" t="n">
-        <v>51.23576912281898</v>
+        <v>51.23576912281897</v>
       </c>
       <c r="J30" t="n">
-        <v>140.5948665827572</v>
+        <v>140.5948665827571</v>
       </c>
       <c r="K30" t="n">
-        <v>240.2990206108059</v>
+        <v>240.2990206108058</v>
       </c>
       <c r="L30" t="n">
-        <v>323.1116879522489</v>
+        <v>323.1116879522488</v>
       </c>
       <c r="M30" t="n">
-        <v>377.0560996465289</v>
+        <v>377.0560996465288</v>
       </c>
       <c r="N30" t="n">
-        <v>387.0356526387316</v>
+        <v>387.0356526387314</v>
       </c>
       <c r="O30" t="n">
-        <v>354.0620086121734</v>
+        <v>354.0620086121733</v>
       </c>
       <c r="P30" t="n">
         <v>284.1659765693366</v>
       </c>
       <c r="Q30" t="n">
-        <v>189.9574298790476</v>
+        <v>189.9574298790475</v>
       </c>
       <c r="R30" t="n">
-        <v>92.39408250988862</v>
+        <v>92.39408250988859</v>
       </c>
       <c r="S30" t="n">
         <v>27.64120792804308</v>
       </c>
       <c r="T30" t="n">
-        <v>5.9981747546332</v>
+        <v>5.998174754633198</v>
       </c>
       <c r="U30" t="n">
-        <v>0.09790274354678789</v>
+        <v>0.09790274354678787</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.247591245634477</v>
+        <v>1.247591245634476</v>
       </c>
       <c r="H31" t="n">
         <v>11.09222034755017</v>
       </c>
       <c r="I31" t="n">
-        <v>37.51847127780773</v>
+        <v>37.51847127780772</v>
       </c>
       <c r="J31" t="n">
-        <v>88.2047010663575</v>
+        <v>88.20470106635747</v>
       </c>
       <c r="K31" t="n">
         <v>144.9474192655328</v>
       </c>
       <c r="L31" t="n">
-        <v>185.4827930100567</v>
+        <v>185.4827930100566</v>
       </c>
       <c r="M31" t="n">
         <v>195.5655986225025</v>
       </c>
       <c r="N31" t="n">
-        <v>190.9154857978651</v>
+        <v>190.915485797865</v>
       </c>
       <c r="O31" t="n">
         <v>176.341351701135</v>
       </c>
       <c r="P31" t="n">
-        <v>150.8904902901916</v>
+        <v>150.8904902901915</v>
       </c>
       <c r="Q31" t="n">
         <v>104.4687542139924</v>
       </c>
       <c r="R31" t="n">
-        <v>56.09623909916473</v>
+        <v>56.09623909916471</v>
       </c>
       <c r="S31" t="n">
-        <v>21.74211288982992</v>
+        <v>21.74211288982991</v>
       </c>
       <c r="T31" t="n">
-        <v>5.330617140438218</v>
+        <v>5.330617140438216</v>
       </c>
       <c r="U31" t="n">
-        <v>0.06805043158006245</v>
+        <v>0.06805043158006242</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>2.781290670943921</v>
+        <v>2.78129067094392</v>
       </c>
       <c r="H32" t="n">
-        <v>28.48389308380444</v>
+        <v>28.48389308380442</v>
       </c>
       <c r="I32" t="n">
         <v>107.2257085915656</v>
       </c>
       <c r="J32" t="n">
-        <v>236.0585690830268</v>
+        <v>236.0585690830267</v>
       </c>
       <c r="K32" t="n">
-        <v>353.790603184083</v>
+        <v>353.7906031840829</v>
       </c>
       <c r="L32" t="n">
-        <v>438.9085275549832</v>
+        <v>438.908527554983</v>
       </c>
       <c r="M32" t="n">
-        <v>488.370305524382</v>
+        <v>488.3703055243819</v>
       </c>
       <c r="N32" t="n">
-        <v>496.2726476432015</v>
+        <v>496.2726476432014</v>
       </c>
       <c r="O32" t="n">
-        <v>468.6161885340029</v>
+        <v>468.6161885340027</v>
       </c>
       <c r="P32" t="n">
-        <v>399.9530750950748</v>
+        <v>399.9530750950747</v>
       </c>
       <c r="Q32" t="n">
-        <v>300.3481029418955</v>
+        <v>300.3481029418954</v>
       </c>
       <c r="R32" t="n">
         <v>174.7102501086812</v>
       </c>
       <c r="S32" t="n">
-        <v>63.37866116413466</v>
+        <v>63.37866116413463</v>
       </c>
       <c r="T32" t="n">
         <v>12.17509991205702</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2225032536755136</v>
+        <v>0.2225032536755135</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33491,46 +33491,46 @@
         <v>1.488121701911175</v>
       </c>
       <c r="H33" t="n">
-        <v>14.37212275266846</v>
+        <v>14.37212275266845</v>
       </c>
       <c r="I33" t="n">
-        <v>51.23576912281898</v>
+        <v>51.23576912281897</v>
       </c>
       <c r="J33" t="n">
-        <v>140.5948665827572</v>
+        <v>140.5948665827571</v>
       </c>
       <c r="K33" t="n">
-        <v>240.2990206108059</v>
+        <v>240.2990206108058</v>
       </c>
       <c r="L33" t="n">
-        <v>323.1116879522489</v>
+        <v>323.1116879522488</v>
       </c>
       <c r="M33" t="n">
-        <v>377.0560996465289</v>
+        <v>377.0560996465288</v>
       </c>
       <c r="N33" t="n">
-        <v>387.0356526387316</v>
+        <v>387.0356526387314</v>
       </c>
       <c r="O33" t="n">
-        <v>354.0620086121734</v>
+        <v>354.0620086121733</v>
       </c>
       <c r="P33" t="n">
         <v>284.1659765693366</v>
       </c>
       <c r="Q33" t="n">
-        <v>189.9574298790476</v>
+        <v>189.9574298790475</v>
       </c>
       <c r="R33" t="n">
-        <v>92.39408250988862</v>
+        <v>92.39408250988859</v>
       </c>
       <c r="S33" t="n">
         <v>27.64120792804308</v>
       </c>
       <c r="T33" t="n">
-        <v>5.9981747546332</v>
+        <v>5.998174754633198</v>
       </c>
       <c r="U33" t="n">
-        <v>0.09790274354678789</v>
+        <v>0.09790274354678787</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.247591245634477</v>
+        <v>1.247591245634476</v>
       </c>
       <c r="H34" t="n">
         <v>11.09222034755017</v>
       </c>
       <c r="I34" t="n">
-        <v>37.51847127780773</v>
+        <v>37.51847127780772</v>
       </c>
       <c r="J34" t="n">
-        <v>88.2047010663575</v>
+        <v>88.20470106635747</v>
       </c>
       <c r="K34" t="n">
         <v>144.9474192655328</v>
       </c>
       <c r="L34" t="n">
-        <v>185.4827930100567</v>
+        <v>185.4827930100566</v>
       </c>
       <c r="M34" t="n">
         <v>195.5655986225025</v>
       </c>
       <c r="N34" t="n">
-        <v>190.9154857978651</v>
+        <v>190.915485797865</v>
       </c>
       <c r="O34" t="n">
         <v>176.341351701135</v>
       </c>
       <c r="P34" t="n">
-        <v>150.8904902901916</v>
+        <v>150.8904902901915</v>
       </c>
       <c r="Q34" t="n">
         <v>104.4687542139924</v>
       </c>
       <c r="R34" t="n">
-        <v>56.09623909916473</v>
+        <v>56.09623909916471</v>
       </c>
       <c r="S34" t="n">
-        <v>21.74211288982992</v>
+        <v>21.74211288982991</v>
       </c>
       <c r="T34" t="n">
-        <v>5.330617140438218</v>
+        <v>5.330617140438216</v>
       </c>
       <c r="U34" t="n">
-        <v>0.06805043158006245</v>
+        <v>0.06805043158006242</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>2.781290670943921</v>
+        <v>2.78129067094392</v>
       </c>
       <c r="H35" t="n">
-        <v>28.48389308380444</v>
+        <v>28.48389308380442</v>
       </c>
       <c r="I35" t="n">
         <v>107.2257085915656</v>
       </c>
       <c r="J35" t="n">
-        <v>236.0585690830268</v>
+        <v>236.0585690830267</v>
       </c>
       <c r="K35" t="n">
-        <v>353.790603184083</v>
+        <v>353.7906031840829</v>
       </c>
       <c r="L35" t="n">
-        <v>438.9085275549832</v>
+        <v>438.908527554983</v>
       </c>
       <c r="M35" t="n">
-        <v>488.370305524382</v>
+        <v>488.3703055243819</v>
       </c>
       <c r="N35" t="n">
-        <v>496.2726476432015</v>
+        <v>496.2726476432014</v>
       </c>
       <c r="O35" t="n">
-        <v>468.6161885340029</v>
+        <v>468.6161885340027</v>
       </c>
       <c r="P35" t="n">
-        <v>399.9530750950748</v>
+        <v>399.9530750950747</v>
       </c>
       <c r="Q35" t="n">
-        <v>300.3481029418955</v>
+        <v>300.3481029418954</v>
       </c>
       <c r="R35" t="n">
         <v>174.7102501086812</v>
       </c>
       <c r="S35" t="n">
-        <v>63.37866116413466</v>
+        <v>63.37866116413463</v>
       </c>
       <c r="T35" t="n">
         <v>12.17509991205702</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2225032536755136</v>
+        <v>0.2225032536755135</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33728,46 +33728,46 @@
         <v>1.488121701911175</v>
       </c>
       <c r="H36" t="n">
-        <v>14.37212275266846</v>
+        <v>14.37212275266845</v>
       </c>
       <c r="I36" t="n">
-        <v>51.23576912281898</v>
+        <v>51.23576912281897</v>
       </c>
       <c r="J36" t="n">
-        <v>140.5948665827572</v>
+        <v>140.5948665827571</v>
       </c>
       <c r="K36" t="n">
-        <v>240.2990206108059</v>
+        <v>240.2990206108058</v>
       </c>
       <c r="L36" t="n">
-        <v>323.1116879522489</v>
+        <v>323.1116879522488</v>
       </c>
       <c r="M36" t="n">
-        <v>377.0560996465289</v>
+        <v>377.0560996465288</v>
       </c>
       <c r="N36" t="n">
-        <v>387.0356526387316</v>
+        <v>387.0356526387314</v>
       </c>
       <c r="O36" t="n">
-        <v>354.0620086121734</v>
+        <v>354.0620086121733</v>
       </c>
       <c r="P36" t="n">
         <v>284.1659765693366</v>
       </c>
       <c r="Q36" t="n">
-        <v>189.9574298790476</v>
+        <v>189.9574298790475</v>
       </c>
       <c r="R36" t="n">
-        <v>92.39408250988862</v>
+        <v>92.39408250988859</v>
       </c>
       <c r="S36" t="n">
         <v>27.64120792804308</v>
       </c>
       <c r="T36" t="n">
-        <v>5.9981747546332</v>
+        <v>5.998174754633198</v>
       </c>
       <c r="U36" t="n">
-        <v>0.09790274354678789</v>
+        <v>0.09790274354678787</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33804,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.247591245634477</v>
+        <v>1.247591245634476</v>
       </c>
       <c r="H37" t="n">
         <v>11.09222034755017</v>
       </c>
       <c r="I37" t="n">
-        <v>37.51847127780773</v>
+        <v>37.51847127780772</v>
       </c>
       <c r="J37" t="n">
-        <v>88.2047010663575</v>
+        <v>88.20470106635747</v>
       </c>
       <c r="K37" t="n">
         <v>144.9474192655328</v>
       </c>
       <c r="L37" t="n">
-        <v>185.4827930100567</v>
+        <v>185.4827930100566</v>
       </c>
       <c r="M37" t="n">
         <v>195.5655986225025</v>
       </c>
       <c r="N37" t="n">
-        <v>190.9154857978651</v>
+        <v>190.915485797865</v>
       </c>
       <c r="O37" t="n">
         <v>176.341351701135</v>
       </c>
       <c r="P37" t="n">
-        <v>150.8904902901916</v>
+        <v>150.8904902901915</v>
       </c>
       <c r="Q37" t="n">
         <v>104.4687542139924</v>
       </c>
       <c r="R37" t="n">
-        <v>56.09623909916473</v>
+        <v>56.09623909916471</v>
       </c>
       <c r="S37" t="n">
-        <v>21.74211288982992</v>
+        <v>21.74211288982991</v>
       </c>
       <c r="T37" t="n">
-        <v>5.330617140438218</v>
+        <v>5.330617140438216</v>
       </c>
       <c r="U37" t="n">
-        <v>0.06805043158006245</v>
+        <v>0.06805043158006242</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>2.781290670943921</v>
+        <v>2.78129067094392</v>
       </c>
       <c r="H38" t="n">
-        <v>28.48389308380444</v>
+        <v>28.48389308380442</v>
       </c>
       <c r="I38" t="n">
         <v>107.2257085915656</v>
       </c>
       <c r="J38" t="n">
-        <v>236.0585690830268</v>
+        <v>236.0585690830267</v>
       </c>
       <c r="K38" t="n">
-        <v>353.790603184083</v>
+        <v>353.7906031840829</v>
       </c>
       <c r="L38" t="n">
-        <v>438.9085275549832</v>
+        <v>438.908527554983</v>
       </c>
       <c r="M38" t="n">
-        <v>488.370305524382</v>
+        <v>488.3703055243819</v>
       </c>
       <c r="N38" t="n">
-        <v>496.2726476432015</v>
+        <v>496.2726476432014</v>
       </c>
       <c r="O38" t="n">
-        <v>468.6161885340029</v>
+        <v>468.6161885340027</v>
       </c>
       <c r="P38" t="n">
-        <v>399.9530750950748</v>
+        <v>399.9530750950747</v>
       </c>
       <c r="Q38" t="n">
-        <v>300.3481029418955</v>
+        <v>300.3481029418954</v>
       </c>
       <c r="R38" t="n">
         <v>174.7102501086812</v>
       </c>
       <c r="S38" t="n">
-        <v>63.37866116413466</v>
+        <v>63.37866116413463</v>
       </c>
       <c r="T38" t="n">
         <v>12.17509991205702</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2225032536755136</v>
+        <v>0.2225032536755135</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33965,46 +33965,46 @@
         <v>1.488121701911175</v>
       </c>
       <c r="H39" t="n">
-        <v>14.37212275266846</v>
+        <v>14.37212275266845</v>
       </c>
       <c r="I39" t="n">
-        <v>51.23576912281898</v>
+        <v>51.23576912281897</v>
       </c>
       <c r="J39" t="n">
-        <v>140.5948665827572</v>
+        <v>140.5948665827571</v>
       </c>
       <c r="K39" t="n">
-        <v>240.2990206108059</v>
+        <v>240.2990206108058</v>
       </c>
       <c r="L39" t="n">
-        <v>323.1116879522489</v>
+        <v>323.1116879522488</v>
       </c>
       <c r="M39" t="n">
-        <v>377.0560996465289</v>
+        <v>377.0560996465288</v>
       </c>
       <c r="N39" t="n">
-        <v>387.0356526387316</v>
+        <v>387.0356526387314</v>
       </c>
       <c r="O39" t="n">
-        <v>354.0620086121734</v>
+        <v>354.0620086121733</v>
       </c>
       <c r="P39" t="n">
         <v>284.1659765693366</v>
       </c>
       <c r="Q39" t="n">
-        <v>189.9574298790476</v>
+        <v>189.9574298790475</v>
       </c>
       <c r="R39" t="n">
-        <v>92.39408250988862</v>
+        <v>92.39408250988859</v>
       </c>
       <c r="S39" t="n">
         <v>27.64120792804308</v>
       </c>
       <c r="T39" t="n">
-        <v>5.9981747546332</v>
+        <v>5.998174754633198</v>
       </c>
       <c r="U39" t="n">
-        <v>0.09790274354678789</v>
+        <v>0.09790274354678787</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.247591245634477</v>
+        <v>1.247591245634476</v>
       </c>
       <c r="H40" t="n">
         <v>11.09222034755017</v>
       </c>
       <c r="I40" t="n">
-        <v>37.51847127780773</v>
+        <v>37.51847127780772</v>
       </c>
       <c r="J40" t="n">
-        <v>88.2047010663575</v>
+        <v>88.20470106635747</v>
       </c>
       <c r="K40" t="n">
         <v>144.9474192655328</v>
       </c>
       <c r="L40" t="n">
-        <v>185.4827930100567</v>
+        <v>185.4827930100566</v>
       </c>
       <c r="M40" t="n">
         <v>195.5655986225025</v>
       </c>
       <c r="N40" t="n">
-        <v>190.9154857978651</v>
+        <v>190.915485797865</v>
       </c>
       <c r="O40" t="n">
         <v>176.341351701135</v>
       </c>
       <c r="P40" t="n">
-        <v>150.8904902901916</v>
+        <v>150.8904902901915</v>
       </c>
       <c r="Q40" t="n">
         <v>104.4687542139924</v>
       </c>
       <c r="R40" t="n">
-        <v>56.09623909916473</v>
+        <v>56.09623909916471</v>
       </c>
       <c r="S40" t="n">
-        <v>21.74211288982992</v>
+        <v>21.74211288982991</v>
       </c>
       <c r="T40" t="n">
-        <v>5.330617140438218</v>
+        <v>5.330617140438216</v>
       </c>
       <c r="U40" t="n">
-        <v>0.06805043158006245</v>
+        <v>0.06805043158006242</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -35413,25 +35413,25 @@
         <v>133.7007521391023</v>
       </c>
       <c r="L11" t="n">
-        <v>583.6180421611868</v>
+        <v>203.1421125849957</v>
       </c>
       <c r="M11" t="n">
-        <v>583.6180421611868</v>
+        <v>262.8411627943331</v>
       </c>
       <c r="N11" t="n">
         <v>266.8595840466105</v>
       </c>
       <c r="O11" t="n">
-        <v>238.517977112316</v>
+        <v>583.6180421611865</v>
       </c>
       <c r="P11" t="n">
-        <v>371.5221664445509</v>
+        <v>490.5187875112878</v>
       </c>
       <c r="Q11" t="n">
-        <v>78.04241306744595</v>
+        <v>290.3574037273506</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>24.84113216753147</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,25 +35489,25 @@
         <v>13.75723991609041</v>
       </c>
       <c r="K12" t="n">
-        <v>102.4575816364468</v>
+        <v>366.9228186490254</v>
       </c>
       <c r="L12" t="n">
-        <v>391.7354903712886</v>
+        <v>555.3976534758337</v>
       </c>
       <c r="M12" t="n">
         <v>234.9220657245104</v>
       </c>
       <c r="N12" t="n">
-        <v>255.6939405553981</v>
+        <v>356.1065968140597</v>
       </c>
       <c r="O12" t="n">
-        <v>583.6180421611868</v>
+        <v>583.6180421611865</v>
       </c>
       <c r="P12" t="n">
-        <v>468.6543377949435</v>
+        <v>150.1915691550063</v>
       </c>
       <c r="Q12" t="n">
-        <v>260.0529435288751</v>
+        <v>49.97565579302602</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,13 +35565,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>74.27673217679168</v>
+        <v>74.27673217679167</v>
       </c>
       <c r="K13" t="n">
         <v>202.1091386667569</v>
       </c>
       <c r="L13" t="n">
-        <v>292.5040294974798</v>
+        <v>292.5040294974797</v>
       </c>
       <c r="M13" t="n">
         <v>314.5806868114501</v>
@@ -35580,13 +35580,13 @@
         <v>314.4788694042006</v>
       </c>
       <c r="O13" t="n">
-        <v>280.357690842281</v>
+        <v>280.3576908422816</v>
       </c>
       <c r="P13" t="n">
         <v>227.600260782192</v>
       </c>
       <c r="Q13" t="n">
-        <v>97.73792218940498</v>
+        <v>97.73792218940497</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35650,10 +35650,10 @@
         <v>457.8461647102671</v>
       </c>
       <c r="L14" t="n">
-        <v>268.3369693551628</v>
+        <v>203.1421125849957</v>
       </c>
       <c r="M14" t="n">
-        <v>583.6180421611868</v>
+        <v>461.3390404389793</v>
       </c>
       <c r="N14" t="n">
         <v>266.8595840466105</v>
@@ -35665,10 +35665,10 @@
         <v>168.7200793398051</v>
       </c>
       <c r="Q14" t="n">
-        <v>78.04241306744595</v>
+        <v>290.3574037273506</v>
       </c>
       <c r="R14" t="n">
-        <v>24.84113216753147</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35729,22 +35729,22 @@
         <v>102.4575816364468</v>
       </c>
       <c r="L15" t="n">
-        <v>184.5573081723746</v>
+        <v>555.3976534758337</v>
       </c>
       <c r="M15" t="n">
-        <v>583.6180421611868</v>
+        <v>234.9220657245104</v>
       </c>
       <c r="N15" t="n">
-        <v>583.6180421611868</v>
+        <v>583.6180421611865</v>
       </c>
       <c r="O15" t="n">
-        <v>583.6180421611868</v>
+        <v>583.6180421611865</v>
       </c>
       <c r="P15" t="n">
         <v>150.1915691550063</v>
       </c>
       <c r="Q15" t="n">
-        <v>109.0738163252611</v>
+        <v>86.92944745847798</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,13 +35802,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>74.27673217679168</v>
+        <v>74.27673217679167</v>
       </c>
       <c r="K16" t="n">
         <v>202.1091386667569</v>
       </c>
       <c r="L16" t="n">
-        <v>292.5040294974798</v>
+        <v>292.5040294974797</v>
       </c>
       <c r="M16" t="n">
         <v>314.5806868114501</v>
@@ -35823,7 +35823,7 @@
         <v>227.600260782192</v>
       </c>
       <c r="Q16" t="n">
-        <v>97.73792218940498</v>
+        <v>97.73792218940426</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>224.1092797284143</v>
+        <v>55.01266455634044</v>
       </c>
       <c r="K17" t="n">
-        <v>133.7007521391025</v>
+        <v>457.8461647102671</v>
       </c>
       <c r="L17" t="n">
-        <v>583.6180421611868</v>
+        <v>203.1421125849957</v>
       </c>
       <c r="M17" t="n">
-        <v>583.6180421611868</v>
+        <v>258.0240722971092</v>
       </c>
       <c r="N17" t="n">
-        <v>266.8595840466106</v>
+        <v>529.7874498489767</v>
       </c>
       <c r="O17" t="n">
-        <v>238.5179771123162</v>
+        <v>238.517977112316</v>
       </c>
       <c r="P17" t="n">
-        <v>177.5844191049453</v>
+        <v>490.5187875112878</v>
       </c>
       <c r="Q17" t="n">
-        <v>78.04241306744606</v>
+        <v>78.04241306744595</v>
       </c>
       <c r="R17" t="n">
-        <v>24.84113216753153</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>114.1698961747524</v>
+        <v>139.8482752564992</v>
       </c>
       <c r="K18" t="n">
-        <v>366.9228186490255</v>
+        <v>102.4575816364468</v>
       </c>
       <c r="L18" t="n">
-        <v>555.3976534758339</v>
+        <v>475.721742766728</v>
       </c>
       <c r="M18" t="n">
-        <v>234.9220657245106</v>
+        <v>234.9220657245104</v>
       </c>
       <c r="N18" t="n">
-        <v>255.6939405553983</v>
+        <v>255.6939405553981</v>
       </c>
       <c r="O18" t="n">
-        <v>583.6180421611868</v>
+        <v>583.6180421611866</v>
       </c>
       <c r="P18" t="n">
-        <v>150.1915691550064</v>
+        <v>468.6543377949435</v>
       </c>
       <c r="Q18" t="n">
-        <v>49.97565579302608</v>
+        <v>49.97565579302602</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36051,16 +36051,16 @@
         <v>235.1494755843431</v>
       </c>
       <c r="N19" t="n">
-        <v>235.0476581770937</v>
+        <v>235.0476581770936</v>
       </c>
       <c r="O19" t="n">
-        <v>200.9264796151747</v>
+        <v>200.9264796151746</v>
       </c>
       <c r="P19" t="n">
-        <v>148.1690495550851</v>
+        <v>148.169049555085</v>
       </c>
       <c r="Q19" t="n">
-        <v>18.30671096229803</v>
+        <v>18.306710962298</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>55.01266455634052</v>
+        <v>80.78440753127069</v>
       </c>
       <c r="K20" t="n">
-        <v>133.7007521391025</v>
+        <v>457.8461647102671</v>
       </c>
       <c r="L20" t="n">
-        <v>257.3466804914508</v>
+        <v>203.1421125849957</v>
       </c>
       <c r="M20" t="n">
-        <v>583.6180421611868</v>
+        <v>258.0240722971092</v>
       </c>
       <c r="N20" t="n">
-        <v>583.6180421611868</v>
+        <v>266.8595840466105</v>
       </c>
       <c r="O20" t="n">
-        <v>238.5179771123162</v>
+        <v>238.517977112316</v>
       </c>
       <c r="P20" t="n">
-        <v>168.7200793398052</v>
+        <v>490.5187875112878</v>
       </c>
       <c r="Q20" t="n">
-        <v>290.3574037273507</v>
+        <v>290.3574037273506</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>24.84113216753147</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>13.75723991609047</v>
+        <v>139.8482752564992</v>
       </c>
       <c r="K21" t="n">
-        <v>366.9228186490255</v>
+        <v>102.4575816364468</v>
       </c>
       <c r="L21" t="n">
-        <v>184.5573081723747</v>
+        <v>184.5573081723746</v>
       </c>
       <c r="M21" t="n">
-        <v>234.9220657245106</v>
+        <v>583.6180421611866</v>
       </c>
       <c r="N21" t="n">
-        <v>583.6180421611868</v>
+        <v>306.5478796171633</v>
       </c>
       <c r="O21" t="n">
-        <v>408.4841734775823</v>
+        <v>583.6180421611866</v>
       </c>
       <c r="P21" t="n">
-        <v>468.6543377949436</v>
+        <v>150.1915691550063</v>
       </c>
       <c r="Q21" t="n">
-        <v>49.97565579302608</v>
+        <v>260.0529435288751</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36288,16 +36288,16 @@
         <v>235.1494755843431</v>
       </c>
       <c r="N22" t="n">
-        <v>235.0476581770937</v>
+        <v>235.0476581770936</v>
       </c>
       <c r="O22" t="n">
-        <v>200.9264796151747</v>
+        <v>200.9264796151746</v>
       </c>
       <c r="P22" t="n">
-        <v>148.1690495550851</v>
+        <v>148.169049555085</v>
       </c>
       <c r="Q22" t="n">
-        <v>18.30671096229803</v>
+        <v>18.306710962298</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>224.1092797284143</v>
+        <v>205.3339217369068</v>
       </c>
       <c r="K23" t="n">
-        <v>457.8461647102672</v>
+        <v>457.8461647102671</v>
       </c>
       <c r="L23" t="n">
-        <v>396.6817452533915</v>
+        <v>203.1421125849957</v>
       </c>
       <c r="M23" t="n">
-        <v>258.0240722971093</v>
+        <v>258.0240722971092</v>
       </c>
       <c r="N23" t="n">
-        <v>266.8595840466106</v>
+        <v>266.8595840466105</v>
       </c>
       <c r="O23" t="n">
-        <v>619.3181583750616</v>
+        <v>619.3181583750613</v>
       </c>
       <c r="P23" t="n">
-        <v>168.7200793398052</v>
+        <v>168.7200793398051</v>
       </c>
       <c r="Q23" t="n">
-        <v>78.04241306744606</v>
+        <v>290.3574037273506</v>
       </c>
       <c r="R23" t="n">
-        <v>24.84113216753153</v>
+        <v>24.84113216753147</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>139.8482752564993</v>
+        <v>139.8482752564992</v>
       </c>
       <c r="K24" t="n">
-        <v>102.4575816364469</v>
+        <v>179.9932252011771</v>
       </c>
       <c r="L24" t="n">
-        <v>555.3976534758339</v>
+        <v>184.5573081723746</v>
       </c>
       <c r="M24" t="n">
-        <v>629.974031299944</v>
+        <v>629.9740312999443</v>
       </c>
       <c r="N24" t="n">
-        <v>255.6939405553983</v>
+        <v>629.9740312999443</v>
       </c>
       <c r="O24" t="n">
-        <v>211.4657641677289</v>
+        <v>211.4657641677288</v>
       </c>
       <c r="P24" t="n">
-        <v>339.5524390649106</v>
+        <v>468.6543377949435</v>
       </c>
       <c r="Q24" t="n">
-        <v>260.0529435288752</v>
+        <v>49.97565579302602</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36525,16 +36525,16 @@
         <v>235.1494755843431</v>
       </c>
       <c r="N25" t="n">
-        <v>235.0476581770937</v>
+        <v>235.0476581770936</v>
       </c>
       <c r="O25" t="n">
-        <v>200.9264796151747</v>
+        <v>200.9264796151746</v>
       </c>
       <c r="P25" t="n">
-        <v>148.1690495550851</v>
+        <v>148.169049555085</v>
       </c>
       <c r="Q25" t="n">
-        <v>18.30671096229803</v>
+        <v>18.306710962298</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>224.1092797284143</v>
+        <v>55.01266455634044</v>
       </c>
       <c r="K26" t="n">
-        <v>457.8461647102672</v>
+        <v>457.8461647102671</v>
       </c>
       <c r="L26" t="n">
-        <v>203.1421125849959</v>
+        <v>620.8033271354461</v>
       </c>
       <c r="M26" t="n">
-        <v>707.5376057899418</v>
+        <v>376.967431327665</v>
       </c>
       <c r="N26" t="n">
-        <v>704.2065084585947</v>
+        <v>704.2065084585946</v>
       </c>
       <c r="O26" t="n">
-        <v>619.3181583750616</v>
+        <v>619.3181583750613</v>
       </c>
       <c r="P26" t="n">
-        <v>490.5187875112879</v>
+        <v>490.5187875112878</v>
       </c>
       <c r="Q26" t="n">
-        <v>208.3518286434507</v>
+        <v>290.3574037273506</v>
       </c>
       <c r="R26" t="n">
-        <v>24.84113216753153</v>
+        <v>24.84113216753147</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>13.75723991609047</v>
+        <v>13.75723991609041</v>
       </c>
       <c r="K27" t="n">
-        <v>102.4575816364469</v>
+        <v>102.4575816364468</v>
       </c>
       <c r="L27" t="n">
-        <v>555.3976534758339</v>
+        <v>555.3976534758337</v>
       </c>
       <c r="M27" t="n">
         <v>700.6271294745104</v>
       </c>
       <c r="N27" t="n">
-        <v>255.6939405553983</v>
+        <v>255.6939405553981</v>
       </c>
       <c r="O27" t="n">
-        <v>542.2194742572495</v>
+        <v>605.3280834444583</v>
       </c>
       <c r="P27" t="n">
-        <v>150.1915691550064</v>
+        <v>150.1915691550063</v>
       </c>
       <c r="Q27" t="n">
-        <v>260.0529435288752</v>
+        <v>196.9443343416666</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,16 +36750,16 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>74.27673217679167</v>
+        <v>74.27673217679164</v>
       </c>
       <c r="K28" t="n">
-        <v>202.1091386667571</v>
+        <v>202.1091386667568</v>
       </c>
       <c r="L28" t="n">
-        <v>292.5040294974798</v>
+        <v>292.5040294974797</v>
       </c>
       <c r="M28" t="n">
-        <v>314.5806868114501</v>
+        <v>314.58068681145</v>
       </c>
       <c r="N28" t="n">
         <v>314.4788694042006</v>
@@ -36768,10 +36768,10 @@
         <v>280.3576908422816</v>
       </c>
       <c r="P28" t="n">
-        <v>227.600260782192</v>
+        <v>227.6002607821919</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.73792218940497</v>
+        <v>97.73792218940494</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>224.1092797284143</v>
+        <v>224.1092797284142</v>
       </c>
       <c r="K29" t="n">
-        <v>457.8461647102672</v>
+        <v>133.7007521391023</v>
       </c>
       <c r="L29" t="n">
-        <v>203.1421125849959</v>
+        <v>620.8033271354461</v>
       </c>
       <c r="M29" t="n">
-        <v>707.5376057899418</v>
+        <v>707.5376057899417</v>
       </c>
       <c r="N29" t="n">
-        <v>704.2065084585947</v>
+        <v>704.2065084585946</v>
       </c>
       <c r="O29" t="n">
-        <v>537.3125832911613</v>
+        <v>443.796781311875</v>
       </c>
       <c r="P29" t="n">
-        <v>490.5187875112879</v>
+        <v>490.5187875112878</v>
       </c>
       <c r="Q29" t="n">
-        <v>290.3574037273507</v>
+        <v>290.3574037273506</v>
       </c>
       <c r="R29" t="n">
-        <v>24.84113216753153</v>
+        <v>24.84113216753147</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>13.75723991609047</v>
+        <v>13.75723991609041</v>
       </c>
       <c r="K30" t="n">
-        <v>102.4575816364469</v>
+        <v>366.9228186490254</v>
       </c>
       <c r="L30" t="n">
-        <v>184.5573081723747</v>
+        <v>184.5573081723746</v>
       </c>
       <c r="M30" t="n">
-        <v>700.6271294745104</v>
+        <v>234.9220657245104</v>
       </c>
       <c r="N30" t="n">
-        <v>735.0363148989518</v>
+        <v>656.280022504982</v>
       </c>
       <c r="O30" t="n">
-        <v>605.3280834444585</v>
+        <v>605.3280834444583</v>
       </c>
       <c r="P30" t="n">
-        <v>188.6582186635522</v>
+        <v>468.6543377949435</v>
       </c>
       <c r="Q30" t="n">
-        <v>49.97565579302608</v>
+        <v>49.97565579302602</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>74.27673217679165</v>
+        <v>74.27673217679164</v>
       </c>
       <c r="K31" t="n">
-        <v>202.1091386667569</v>
+        <v>202.1091386667568</v>
       </c>
       <c r="L31" t="n">
-        <v>292.5040294974798</v>
+        <v>292.5040294974797</v>
       </c>
       <c r="M31" t="n">
-        <v>314.5806868114501</v>
+        <v>314.58068681145</v>
       </c>
       <c r="N31" t="n">
-        <v>314.4788694042006</v>
+        <v>314.4788694042008</v>
       </c>
       <c r="O31" t="n">
         <v>280.3576908422816</v>
       </c>
       <c r="P31" t="n">
-        <v>227.600260782192</v>
+        <v>227.6002607821919</v>
       </c>
       <c r="Q31" t="n">
-        <v>97.73792218940496</v>
+        <v>97.73792218940494</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>224.1092797284143</v>
+        <v>224.1092797284142</v>
       </c>
       <c r="K32" t="n">
-        <v>457.8461647102672</v>
+        <v>457.8461647102671</v>
       </c>
       <c r="L32" t="n">
-        <v>620.8033271354464</v>
+        <v>620.8033271354461</v>
       </c>
       <c r="M32" t="n">
-        <v>707.5376057899418</v>
+        <v>588.6709974183358</v>
       </c>
       <c r="N32" t="n">
-        <v>441.6958416516803</v>
+        <v>704.2065084585946</v>
       </c>
       <c r="O32" t="n">
-        <v>619.3181583750616</v>
+        <v>238.517977112316</v>
       </c>
       <c r="P32" t="n">
-        <v>490.5187875112879</v>
+        <v>490.5187875112878</v>
       </c>
       <c r="Q32" t="n">
-        <v>78.04241306744606</v>
+        <v>290.3574037273506</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>24.84113216753147</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>13.75723991609047</v>
+        <v>139.8482752564992</v>
       </c>
       <c r="K33" t="n">
-        <v>102.4575816364469</v>
+        <v>102.4575816364468</v>
       </c>
       <c r="L33" t="n">
-        <v>555.3976534758339</v>
+        <v>490.7952416172419</v>
       </c>
       <c r="M33" t="n">
-        <v>234.9220657245106</v>
+        <v>700.6271294745104</v>
       </c>
       <c r="N33" t="n">
-        <v>735.0363148989518</v>
+        <v>735.0363148989516</v>
       </c>
       <c r="O33" t="n">
-        <v>211.4657641677289</v>
+        <v>211.4657641677288</v>
       </c>
       <c r="P33" t="n">
-        <v>467.3079686509732</v>
+        <v>150.1915691550063</v>
       </c>
       <c r="Q33" t="n">
-        <v>260.0529435288752</v>
+        <v>49.97565579302602</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37230,7 +37230,7 @@
         <v>202.1091386667569</v>
       </c>
       <c r="L34" t="n">
-        <v>292.5040294974798</v>
+        <v>292.5040294974797</v>
       </c>
       <c r="M34" t="n">
         <v>314.5806868114501</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>224.1092797284143</v>
+        <v>55.01266455634044</v>
       </c>
       <c r="K35" t="n">
-        <v>457.8461647102672</v>
+        <v>133.7007521391023</v>
       </c>
       <c r="L35" t="n">
-        <v>596.8857816320666</v>
+        <v>203.1421125849957</v>
       </c>
       <c r="M35" t="n">
-        <v>258.0240722971093</v>
+        <v>258.0240722971092</v>
       </c>
       <c r="N35" t="n">
-        <v>266.8595840466106</v>
+        <v>594.8904498380019</v>
       </c>
       <c r="O35" t="n">
-        <v>619.3181583750616</v>
+        <v>619.3181583750613</v>
       </c>
       <c r="P35" t="n">
-        <v>168.7200793398052</v>
+        <v>490.5187875112878</v>
       </c>
       <c r="Q35" t="n">
-        <v>78.04241306744606</v>
+        <v>290.3574037273506</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>24.84113216753147</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>139.8482752564993</v>
+        <v>139.8482752564992</v>
       </c>
       <c r="K36" t="n">
-        <v>366.9228186490255</v>
+        <v>366.9228186490254</v>
       </c>
       <c r="L36" t="n">
-        <v>555.3976534758339</v>
+        <v>184.5573081723746</v>
       </c>
       <c r="M36" t="n">
-        <v>234.9220657245106</v>
+        <v>274.633972729757</v>
       </c>
       <c r="N36" t="n">
-        <v>343.1336734019945</v>
+        <v>674.2621117002074</v>
       </c>
       <c r="O36" t="n">
-        <v>211.4657641677289</v>
+        <v>211.4657641677288</v>
       </c>
       <c r="P36" t="n">
-        <v>468.6543377949436</v>
+        <v>468.6543377949435</v>
       </c>
       <c r="Q36" t="n">
-        <v>260.0529435288752</v>
+        <v>260.0529435288751</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37473,16 +37473,16 @@
         <v>235.1494755843431</v>
       </c>
       <c r="N37" t="n">
-        <v>235.0476581770937</v>
+        <v>235.0476581770936</v>
       </c>
       <c r="O37" t="n">
-        <v>200.9264796151747</v>
+        <v>200.9264796151746</v>
       </c>
       <c r="P37" t="n">
-        <v>148.1690495550851</v>
+        <v>148.169049555085</v>
       </c>
       <c r="Q37" t="n">
-        <v>18.30671096229803</v>
+        <v>18.306710962298</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,28 +37540,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>55.01266455634052</v>
+        <v>55.01266455634044</v>
       </c>
       <c r="K38" t="n">
-        <v>133.7007521391025</v>
+        <v>355.2723855787046</v>
       </c>
       <c r="L38" t="n">
-        <v>203.1421125849959</v>
+        <v>620.8033271354461</v>
       </c>
       <c r="M38" t="n">
-        <v>258.0240722971093</v>
+        <v>674.2621117002074</v>
       </c>
       <c r="N38" t="n">
-        <v>619.731582005533</v>
+        <v>266.8595840466105</v>
       </c>
       <c r="O38" t="n">
-        <v>619.3181583750616</v>
+        <v>238.517977112316</v>
       </c>
       <c r="P38" t="n">
-        <v>490.5187875112879</v>
+        <v>168.7200793398051</v>
       </c>
       <c r="Q38" t="n">
-        <v>290.3574037273507</v>
+        <v>290.3574037273506</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>139.8482752564993</v>
+        <v>13.75723991609041</v>
       </c>
       <c r="K39" t="n">
-        <v>366.9228186490255</v>
+        <v>102.4575816364468</v>
       </c>
       <c r="L39" t="n">
-        <v>184.5573081723747</v>
+        <v>184.5573081723746</v>
       </c>
       <c r="M39" t="n">
-        <v>234.9220657245106</v>
+        <v>589.7906944459522</v>
       </c>
       <c r="N39" t="n">
-        <v>674.2621117002076</v>
+        <v>674.2621117002074</v>
       </c>
       <c r="O39" t="n">
-        <v>569.6404398129124</v>
+        <v>605.3280834444583</v>
       </c>
       <c r="P39" t="n">
-        <v>150.1915691550064</v>
+        <v>150.1915691550063</v>
       </c>
       <c r="Q39" t="n">
-        <v>260.0529435288752</v>
+        <v>260.0529435288751</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37710,16 +37710,16 @@
         <v>235.1494755843431</v>
       </c>
       <c r="N40" t="n">
-        <v>235.0476581770937</v>
+        <v>235.0476581770936</v>
       </c>
       <c r="O40" t="n">
-        <v>200.9264796151747</v>
+        <v>200.9264796151746</v>
       </c>
       <c r="P40" t="n">
-        <v>148.1690495550851</v>
+        <v>148.169049555085</v>
       </c>
       <c r="Q40" t="n">
-        <v>18.30671096229803</v>
+        <v>18.306710962298</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37783,7 +37783,7 @@
         <v>457.8461647102671</v>
       </c>
       <c r="L41" t="n">
-        <v>443.5722640634264</v>
+        <v>275.0870734605846</v>
       </c>
       <c r="M41" t="n">
         <v>258.0240722971092</v>
@@ -37792,13 +37792,13 @@
         <v>266.8595840466105</v>
       </c>
       <c r="O41" t="n">
-        <v>238.517977112316</v>
+        <v>619.3181583750613</v>
       </c>
       <c r="P41" t="n">
         <v>490.5187875112878</v>
       </c>
       <c r="Q41" t="n">
-        <v>290.3574037273506</v>
+        <v>78.04241306744595</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37856,22 +37856,22 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>139.8482752564992</v>
+        <v>13.75723991609041</v>
       </c>
       <c r="K42" t="n">
-        <v>366.9228186490254</v>
+        <v>102.4575816364468</v>
       </c>
       <c r="L42" t="n">
-        <v>248.975067045701</v>
+        <v>555.3976534758337</v>
       </c>
       <c r="M42" t="n">
-        <v>234.9220657245104</v>
+        <v>674.2621117002074</v>
       </c>
       <c r="N42" t="n">
         <v>255.6939405553981</v>
       </c>
       <c r="O42" t="n">
-        <v>605.3280834444583</v>
+        <v>250.1217233916159</v>
       </c>
       <c r="P42" t="n">
         <v>468.6543377949435</v>
@@ -38023,13 +38023,13 @@
         <v>620.8033271354461</v>
       </c>
       <c r="M44" t="n">
-        <v>258.0240722971092</v>
+        <v>354.1063678071032</v>
       </c>
       <c r="N44" t="n">
-        <v>674.2621117002076</v>
+        <v>674.2621117002074</v>
       </c>
       <c r="O44" t="n">
-        <v>359.4414047898419</v>
+        <v>238.517977112316</v>
       </c>
       <c r="P44" t="n">
         <v>490.5187875112878</v>
@@ -38038,7 +38038,7 @@
         <v>78.04241306744595</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>24.84113216753147</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>139.8482752564992</v>
+        <v>13.75723991609041</v>
       </c>
       <c r="K45" t="n">
         <v>366.9228186490254</v>
@@ -38105,16 +38105,16 @@
         <v>234.9220657245104</v>
       </c>
       <c r="N45" t="n">
-        <v>553.2109611378439</v>
+        <v>674.2621117002074</v>
       </c>
       <c r="O45" t="n">
         <v>211.4657641677288</v>
       </c>
       <c r="P45" t="n">
-        <v>468.6543377949435</v>
+        <v>263.61693483714</v>
       </c>
       <c r="Q45" t="n">
-        <v>49.97565579302602</v>
+        <v>260.0529435288751</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
